--- a/src/attributions/attributions_ig_traj_58.xlsx
+++ b/src/attributions/attributions_ig_traj_58.xlsx
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>-0</v>
@@ -1603,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>-0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
         <v>-0</v>
@@ -1684,13 +1684,13 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
         <v>-0</v>
@@ -1711,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
         <v>-0</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
         <v>-0</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
         <v>-0</v>
@@ -1792,13 +1792,13 @@
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY3" t="n">
         <v>-0</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
         <v>-0</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
         <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
         <v>-0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
         <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
         <v>-0</v>
@@ -1927,13 +1927,13 @@
         <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
         <v>-0</v>
@@ -1981,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
         <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
         <v>-0</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
         <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
         <v>-0</v>
@@ -2035,13 +2035,13 @@
         <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
         <v>-0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI3" t="n">
         <v>0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK3" t="n">
         <v>-0</v>
@@ -2145,25 +2145,25 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.04845582799018418</v>
+        <v>0.06151757844986793</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09470332456893295</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0303515306715338</v>
+        <v>-0.006264158863841146</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0.0445071252859037</v>
       </c>
       <c r="G4" t="n">
         <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -2172,46 +2172,46 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.03544326361157394</v>
+        <v>0.02952676859720245</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03765412855682397</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.009832549887248791</v>
+        <v>-0.007383776338731849</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0.04318197903740162</v>
       </c>
       <c r="P4" t="n">
         <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.002093695086126871</v>
+        <v>1.733296892002573e-12</v>
       </c>
       <c r="U4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>-2.98190380433862e-11</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01531388253656089</v>
+        <v>0.002093183420500053</v>
       </c>
       <c r="X4" t="n">
-        <v>-0</v>
+        <v>-0.003112954095465442</v>
       </c>
       <c r="Y4" t="n">
         <v>-0</v>
@@ -2220,79 +2220,79 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.05194629153709147</v>
+        <v>0.0073387158379619</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.05822813832971757</v>
+        <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.03765497015713012</v>
+        <v>0.02209590716269821</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>-0.00291711895694557</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.04658236564974051</v>
+        <v>0.01523302455542294</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.01248595528477419</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.01178808766512396</v>
+        <v>-0.009521183454342734</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0</v>
+        <v>-0.01872128587364284</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.1585568086777431</v>
+        <v>0.08306087811613144</v>
       </c>
       <c r="AV4" t="n">
         <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.02810085616907804</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.0257024555783895</v>
+        <v>-0.005351170474668294</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0.06717270008509434</v>
       </c>
       <c r="AZ4" t="n">
         <v>0</v>
@@ -2304,22 +2304,22 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-7.476890743610829e-12</v>
+        <v>0.01035627935441267</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.02784080421450058</v>
+        <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.005199807589317655</v>
+        <v>-0.008377532814982136</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>-1.643224659816602e-11</v>
       </c>
       <c r="BI4" t="n">
         <v>-0</v>
@@ -2331,22 +2331,22 @@
         <v>-0</v>
       </c>
       <c r="BL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.05589687337513792</v>
+        <v>0.02711185467707717</v>
       </c>
       <c r="BN4" t="n">
         <v>-0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.04324089808872898</v>
+        <v>-0</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.01314535965659721</v>
+        <v>-0.004939344756505712</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0</v>
+        <v>0.01273985849455776</v>
       </c>
       <c r="BR4" t="n">
         <v>-0</v>
@@ -2358,49 +2358,49 @@
         <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.006870374535989544</v>
+        <v>0.04347970316528633</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.05724186300397294</v>
+        <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.00395815030240091</v>
+        <v>-0.01274046112942279</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0</v>
+        <v>-0.006681476161402359</v>
       </c>
       <c r="CA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB4" t="n">
         <v>0</v>
       </c>
       <c r="CC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.04171272145355</v>
+        <v>-0.01518195695743078</v>
       </c>
       <c r="CF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.03139345912756935</v>
+        <v>-0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.01100974567168461</v>
+        <v>-0.007119276117770749</v>
       </c>
       <c r="CI4" t="n">
-        <v>0</v>
+        <v>0.03389061873772829</v>
       </c>
       <c r="CJ4" t="n">
         <v>0</v>
@@ -2415,19 +2415,19 @@
         <v>-0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.01627491085124063</v>
+        <v>0.004220800188567688</v>
       </c>
       <c r="CO4" t="n">
         <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.01622635305136998</v>
+        <v>0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.069423606768203</v>
+        <v>0.009086548436788825</v>
       </c>
       <c r="CR4" t="n">
-        <v>0</v>
+        <v>-0.01255948373539565</v>
       </c>
       <c r="CS4" t="n">
         <v>-0</v>
@@ -2439,22 +2439,22 @@
         <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.04403183240278291</v>
+        <v>-0.01236100356947819</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0.02637902239922527</v>
+        <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.005211957087348593</v>
+        <v>-0.007465075812480916</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0</v>
+        <v>0.03655684439617373</v>
       </c>
       <c r="DB4" t="n">
         <v>-0</v>
@@ -2463,52 +2463,52 @@
         <v>-0</v>
       </c>
       <c r="DD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.1368337735291642</v>
+        <v>-0.01124859271921664</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.02488573138199228</v>
+        <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.01035905866790576</v>
+        <v>0.0173012481113183</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0</v>
+        <v>0.04316577628929945</v>
       </c>
       <c r="DK4" t="n">
         <v>0</v>
       </c>
       <c r="DL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0.02219188023234798</v>
+        <v>-0.005530905548973567</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0.00340989531946325</v>
+        <v>-0</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.08055436993575729</v>
+        <v>0.008196264897568292</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0.002454789933630153</v>
       </c>
       <c r="DT4" t="n">
         <v>0</v>
@@ -2517,25 +2517,25 @@
         <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.07109538309179203</v>
+        <v>0.001494225231264139</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.06295075473352843</v>
+        <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.01197849542506309</v>
+        <v>-0.005776400151957955</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0</v>
+        <v>-0.02607926624246887</v>
       </c>
       <c r="EC4" t="n">
         <v>-0</v>
@@ -2547,28 +2547,28 @@
         <v>-0</v>
       </c>
       <c r="EF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.03775769435315035</v>
+        <v>-0.006582875530561338</v>
       </c>
       <c r="EH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0.02776437171239383</v>
+        <v>0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.08938320337544824</v>
+        <v>-0.002317480305515998</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0</v>
+        <v>0.02051884007528583</v>
       </c>
       <c r="EL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
         <v>0</v>
@@ -2577,19 +2577,19 @@
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.01617670444414513</v>
+        <v>-0.003724687617102447</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.002400112888696497</v>
+        <v>0</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.04887077127310856</v>
+        <v>-0.0135205805171917</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>0.04151813803139272</v>
       </c>
       <c r="EU4" t="n">
         <v>-0</v>
@@ -2598,25 +2598,25 @@
         <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.0355606080064381</v>
+        <v>-0.01223853225873275</v>
       </c>
       <c r="EZ4" t="n">
         <v>-0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0.0199324399954809</v>
+        <v>0</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.01236434518323364</v>
+        <v>-0.005739481573729847</v>
       </c>
       <c r="FC4" t="n">
-        <v>0</v>
+        <v>0.03401302283240527</v>
       </c>
       <c r="FD4" t="n">
         <v>0</v>
@@ -2625,52 +2625,52 @@
         <v>0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.00194951760249183</v>
+        <v>-0.01547752889232037</v>
       </c>
       <c r="FI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0.005011794707528101</v>
+        <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.02723555588065487</v>
+        <v>-0.01457021959409249</v>
       </c>
       <c r="FL4" t="n">
-        <v>0</v>
+        <v>0.006430573276815056</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO4" t="n">
         <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0.008786775024018456</v>
+        <v>0.0009822097580128742</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.07417896167159098</v>
+        <v>-0</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.01649073295335824</v>
+        <v>-0.01756091438898378</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>0.0215000442937</v>
       </c>
       <c r="FV4" t="n">
         <v>-0</v>
@@ -2679,31 +2679,31 @@
         <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
         <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.04017261723881971</v>
+        <v>-0.01768101668098829</v>
       </c>
       <c r="GA4" t="n">
         <v>0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.06129375978276043</v>
+        <v>-0</v>
       </c>
       <c r="GC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>-0</v>
+        <v>-0.013311210740497</v>
       </c>
       <c r="GE4" t="n">
         <v>-0</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG4" t="n">
         <v>0</v>
@@ -2714,25 +2714,25 @@
         <v>-0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.1724234544045913</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03660370023019707</v>
+        <v>-0.07585239999227658</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04824786345930766</v>
+        <v>-0.08628636090390075</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.04237966528159749</v>
+        <v>-0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2741,16 +2741,16 @@
         <v>-0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.08276756519281532</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003249055579839547</v>
+        <v>-0.06777166865891619</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01425948785142092</v>
+        <v>-0.07939755403872839</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -2759,34 +2759,34 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.0323360563785678</v>
+        <v>-0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.00640846014281817</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.004013642707435668</v>
+        <v>1.104230440547656e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>-3.25221872092824e-11</v>
+        <v>2.86822030297845e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-1.378667026085471e-11</v>
+        <v>-0</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -2795,25 +2795,25 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0</v>
+        <v>0.04196935418672475</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.004015444175371584</v>
+        <v>0.06041925534435127</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.01595124369826064</v>
+        <v>0.1046666930498403</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>-0.009790903519134418</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
         <v>-0</v>
@@ -2822,16 +2822,16 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0</v>
+        <v>-0.03737524314159328</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.02353858337586308</v>
+        <v>-0.02613559976629062</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.06990855924554193</v>
+        <v>-0.08211185786169932</v>
       </c>
       <c r="AP5" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>-0</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.0021864538417139</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
         <v>0</v>
@@ -2849,79 +2849,79 @@
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0</v>
+        <v>0.3961347801296478</v>
       </c>
       <c r="AV5" t="n">
         <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.05386022567927633</v>
+        <v>0.1147286101690576</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.1038994991178715</v>
+        <v>0.2097702142974795</v>
       </c>
       <c r="AY5" t="n">
         <v>-0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0.09080535486092622</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>-0.0005919995656516177</v>
       </c>
       <c r="BE5" t="n">
         <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0.0003022586399462494</v>
+        <v>-0.1700562626355458</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.006444206572597731</v>
+        <v>-0.03619513607100312</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
       </c>
       <c r="BI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.0047024197739668</v>
+        <v>-0</v>
       </c>
       <c r="BK5" t="n">
         <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.1561279831450206</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.01964142660064906</v>
+        <v>0.01226765475414163</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.004139653610370816</v>
+        <v>0.1879084532707371</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR5" t="n">
         <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.05263377945515803</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
         <v>-0</v>
@@ -2930,70 +2930,70 @@
         <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.1872711880369845</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.05296472364661837</v>
+        <v>-0.01394230555374526</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.05991214402028402</v>
+        <v>0.01965042601331922</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA5" t="n">
         <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.02819565871100854</v>
+        <v>0</v>
       </c>
       <c r="CC5" t="n">
         <v>0</v>
       </c>
       <c r="CD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>-0</v>
+        <v>-0.05634890581955826</v>
       </c>
       <c r="CF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0.01985071971925745</v>
+        <v>0.008891811238783527</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0.009572746843413325</v>
+        <v>0.002489767116518908</v>
       </c>
       <c r="CI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.01686055978908167</v>
+        <v>-0</v>
       </c>
       <c r="CL5" t="n">
         <v>-0</v>
       </c>
       <c r="CM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>-0.0551040252096518</v>
       </c>
       <c r="CO5" t="n">
         <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0.01399254712294758</v>
+        <v>-0.1107635822338896</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.03158922986767227</v>
+        <v>-0.224658681164599</v>
       </c>
       <c r="CR5" t="n">
         <v>0</v>
@@ -3002,79 +3002,79 @@
         <v>-0</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.01699076664861726</v>
+        <v>-0</v>
       </c>
       <c r="CU5" t="n">
         <v>-0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0</v>
+        <v>-0.03933904007676879</v>
       </c>
       <c r="CX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0.01388548807700838</v>
+        <v>0.01530863054278753</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.001218922900208887</v>
+        <v>0.0270513350794167</v>
       </c>
       <c r="DA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.006683652683585836</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
         <v>0</v>
       </c>
       <c r="DE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.002279848997276466</v>
       </c>
       <c r="DG5" t="n">
         <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>-0.002868357074896131</v>
+        <v>0.03541979791980274</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.03532110525609158</v>
+        <v>0.01897097177757372</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
-        <v>-0.01002377524228638</v>
+        <v>0</v>
       </c>
       <c r="DM5" t="n">
         <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.1070766190701942</v>
       </c>
       <c r="DP5" t="n">
         <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.005567406380750629</v>
+        <v>0.04944942023359825</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.03266560276919499</v>
+        <v>0.03509041488514254</v>
       </c>
       <c r="DS5" t="n">
         <v>0</v>
@@ -3083,61 +3083,61 @@
         <v>0</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.005455101079798713</v>
+        <v>-0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>0</v>
+        <v>-0.01415344296257563</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>-0.0008893587535759798</v>
+        <v>-0.04044638023015785</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.01256565684928451</v>
+        <v>0.02250758742305195</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC5" t="n">
         <v>-0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.03463624899105777</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
         <v>-0</v>
       </c>
       <c r="EF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG5" t="n">
-        <v>-0</v>
+        <v>-0.04616437675588373</v>
       </c>
       <c r="EH5" t="n">
         <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0.03069406686475046</v>
+        <v>0.02113408988202038</v>
       </c>
       <c r="EJ5" t="n">
-        <v>-0.04307034764109102</v>
+        <v>0.07239941636019709</v>
       </c>
       <c r="EK5" t="n">
         <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.02979145708033144</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
         <v>-0</v>
@@ -3146,52 +3146,52 @@
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.03536021030333159</v>
       </c>
       <c r="EQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>-0.02840914284435024</v>
+        <v>-0.03061718235734359</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.03071685429912014</v>
+        <v>0.02132986232451508</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0.0277688025706162</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
         <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0.04176446853170641</v>
       </c>
       <c r="EZ5" t="n">
         <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0.01352989261301063</v>
+        <v>0.01708796097808401</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.0009598003905588355</v>
+        <v>0.0295468318297748</v>
       </c>
       <c r="FC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD5" t="n">
         <v>0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.02037286105204563</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
         <v>-0</v>
@@ -3200,52 +3200,52 @@
         <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>0.0532115217766757</v>
       </c>
       <c r="FI5" t="n">
         <v>0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>-0.01705797832610862</v>
+        <v>-0.04457929445408893</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.01881874135956165</v>
+        <v>0.001003151270714691</v>
       </c>
       <c r="FL5" t="n">
         <v>-0</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.02775446508822103</v>
+        <v>0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>-0.08506089638680379</v>
       </c>
       <c r="FR5" t="n">
         <v>0</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.003690536511781041</v>
+        <v>0.03513431638929641</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.03754257650444215</v>
+        <v>0.0942754447541501</v>
       </c>
       <c r="FU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV5" t="n">
         <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.01224450274872997</v>
+        <v>0</v>
       </c>
       <c r="FX5" t="n">
         <v>-0</v>
@@ -3254,16 +3254,16 @@
         <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.02215988441782742</v>
       </c>
       <c r="GA5" t="n">
         <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>-0.02975703577261192</v>
+        <v>-0.0564526179491303</v>
       </c>
       <c r="GC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD5" t="n">
         <v>-0</v>
@@ -3272,114 +3272,114 @@
         <v>-0</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.008397025194617675</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.02271788943458388</v>
+        <v>0.02369615752043212</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09980527606126556</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02352245936289084</v>
+        <v>-0.01627939737406781</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>-0.004861798200636073</v>
       </c>
       <c r="G6" t="n">
         <v>-0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.01734180532475755</v>
+        <v>0.007015752417675417</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05285482401732653</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.003142706579285373</v>
+        <v>-0.01610259310161196</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0.0056548100515296</v>
       </c>
       <c r="P6" t="n">
         <v>-0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.002622097679465746</v>
+        <v>0.0005794118159106669</v>
       </c>
       <c r="U6" t="n">
         <v>-0</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.0131504916316869</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.0115380874124444</v>
+        <v>-0.0005545282283040809</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>-0.003252332958346637</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.01687412800133462</v>
+        <v>0.01392863404066435</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.04854252842836691</v>
+        <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.0137946625581794</v>
+        <v>0.01335270792779916</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0</v>
+        <v>0.0003421293342581613</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
@@ -3391,46 +3391,46 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.03586984719100242</v>
+        <v>0.007034579062149699</v>
       </c>
       <c r="AM6" t="n">
         <v>-0</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.005661335617296134</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.01096967393682975</v>
+        <v>-0.0199828843011322</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0</v>
+        <v>-0.005640688431233748</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.1392186677861871</v>
+        <v>0.05138058695196019</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.03221808848796274</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.02896132783581272</v>
+        <v>-0.01549815152147675</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0.008857825392231899</v>
       </c>
       <c r="AZ6" t="n">
         <v>0</v>
@@ -3439,25 +3439,25 @@
         <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC6" t="n">
         <v>-0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.01134299595524652</v>
+        <v>0.003023672749568873</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.03391755174273865</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.006385487976688307</v>
+        <v>-0.009932914374643749</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>0.00281184794865558</v>
       </c>
       <c r="BI6" t="n">
         <v>-0</v>
@@ -3466,25 +3466,25 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.03610976569033097</v>
+        <v>0.0309470636961331</v>
       </c>
       <c r="BN6" t="n">
         <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.03482951134114053</v>
+        <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.03915684484887891</v>
+        <v>0.01131711544429801</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0</v>
+        <v>0.01196695574700179</v>
       </c>
       <c r="BR6" t="n">
         <v>-0</v>
@@ -3496,49 +3496,49 @@
         <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>-0.01209390534318449</v>
+        <v>0.02079202753567077</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.05670683923439566</v>
+        <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>-0.007870079649475488</v>
+        <v>-0.01290329386841188</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-0</v>
+        <v>0.01965766889991798</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.03257174052818752</v>
+        <v>-0.0008294423140172999</v>
       </c>
       <c r="CF6" t="n">
         <v>-0</v>
       </c>
       <c r="CG6" t="n">
-        <v>-0.0360849116631722</v>
+        <v>0</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.01578364581030968</v>
+        <v>0.0006909565746196228</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>0.006648213298335437</v>
       </c>
       <c r="CJ6" t="n">
         <v>0</v>
@@ -3547,109 +3547,109 @@
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM6" t="n">
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.03855471187153396</v>
+        <v>0.001135198681124018</v>
       </c>
       <c r="CO6" t="n">
         <v>-0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0.02983006975955079</v>
+        <v>-0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.0843459393025604</v>
+        <v>0.001136449819293926</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>-0.01369979139185658</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
         <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.03443717731512754</v>
+        <v>0.003981112681505907</v>
       </c>
       <c r="CX6" t="n">
         <v>0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0.0309043370960456</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.006350635744050097</v>
+        <v>0.002017675676713774</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0</v>
+        <v>0.007695103823367752</v>
       </c>
       <c r="DB6" t="n">
         <v>-0</v>
       </c>
       <c r="DC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="n">
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.1030488967797237</v>
+        <v>-0.0003365456325160317</v>
       </c>
       <c r="DG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>-0.01882223985033682</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>-6.441185401894517e-05</v>
+        <v>-2.079773386770612e-05</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0</v>
+        <v>0.01022506835645479</v>
       </c>
       <c r="DK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM6" t="n">
         <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>-0.004283010917527717</v>
+        <v>0.003914361427102905</v>
       </c>
       <c r="DP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.003507530816087158</v>
+        <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.06336248330792148</v>
+        <v>0.01135395809992555</v>
       </c>
       <c r="DS6" t="n">
-        <v>0</v>
+        <v>0.003826528052192792</v>
       </c>
       <c r="DT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU6" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         <v>-0</v>
       </c>
       <c r="DW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.02021360618405911</v>
+        <v>-0.0125375213875257</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.04679988123552967</v>
+        <v>-0</v>
       </c>
       <c r="EA6" t="n">
-        <v>-0.0007170171040309195</v>
+        <v>-0.01222243690631695</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>-0.001871343493646625</v>
       </c>
       <c r="EC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
@@ -3685,22 +3685,22 @@
         <v>-0</v>
       </c>
       <c r="EF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.03110632837560624</v>
+        <v>0.004693803817180612</v>
       </c>
       <c r="EH6" t="n">
         <v>-0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0.04634321032894716</v>
+        <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>-0.04861064840657726</v>
+        <v>0.003640633358725985</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>0.006007105603693716</v>
       </c>
       <c r="EL6" t="n">
         <v>0</v>
@@ -3715,22 +3715,22 @@
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.006264104933199089</v>
+        <v>0.00339514007595435</v>
       </c>
       <c r="EQ6" t="n">
         <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.001988889226447799</v>
+        <v>0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.03293447402185107</v>
+        <v>-0.01263398375015113</v>
       </c>
       <c r="ET6" t="n">
-        <v>-0</v>
+        <v>0.03481365157147202</v>
       </c>
       <c r="EU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV6" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.02526535417379905</v>
+        <v>0.00504924438945633</v>
       </c>
       <c r="EZ6" t="n">
         <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>-0.02655427812127528</v>
+        <v>-0</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.01925763805361157</v>
+        <v>0.001538356017054229</v>
       </c>
       <c r="FC6" t="n">
-        <v>0</v>
+        <v>0.01024089455617086</v>
       </c>
       <c r="FD6" t="n">
         <v>0</v>
@@ -3766,55 +3766,55 @@
         <v>-0</v>
       </c>
       <c r="FG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0.03107745552137673</v>
+        <v>-0.01201858082751567</v>
       </c>
       <c r="FI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>-0.02100104898455491</v>
+        <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.002493024429822091</v>
+        <v>-0.01421241829712526</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>0.02166862852976348</v>
       </c>
       <c r="FM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO6" t="n">
         <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>-0.002645537400494478</v>
+        <v>-0.00628014013610882</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.05413945838150183</v>
+        <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>-0.005329485142353858</v>
+        <v>-0.004434982718726029</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>0.0004231040504699799</v>
       </c>
       <c r="FV6" t="n">
         <v>-0</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX6" t="n">
         <v>0</v>
@@ -3823,25 +3823,25 @@
         <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.02751137670053169</v>
+        <v>-0.01833448044428889</v>
       </c>
       <c r="GA6" t="n">
         <v>0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.03463894561687603</v>
+        <v>0</v>
       </c>
       <c r="GC6" t="n">
         <v>-0</v>
       </c>
       <c r="GD6" t="n">
-        <v>0</v>
+        <v>-0.006149180742051567</v>
       </c>
       <c r="GE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG6" t="n">
         <v>0</v>
@@ -3852,43 +3852,43 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.09621517254716988</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.007674826755330029</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05565024356818231</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0235805468228011</v>
+        <v>-0.01085576736940839</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0</v>
+        <v>-0.01014104878374382</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.0388667563193091</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.00951811481995596</v>
+        <v>-0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02560871736701422</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.02547050694679799</v>
+        <v>-0.04529113290465307</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R7" t="n">
-        <v>-0</v>
+        <v>-0.0117308522379342</v>
       </c>
       <c r="S7" t="n">
         <v>-0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.004534038330129311</v>
       </c>
       <c r="U7" t="n">
-        <v>0.004666595542702541</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.01523504421799156</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.03130195034951846</v>
+        <v>-0.003099748330083481</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -3927,22 +3927,22 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>-0.0006520111396533534</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.02878681174824684</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.003435838503589789</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0338960494173053</v>
+        <v>-0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.01783540432691398</v>
+        <v>0.02261178963928306</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -3954,103 +3954,103 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>0.004621876704463578</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.02806302750136101</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.00252795254534683</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.05343393312336496</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.008233092762787542</v>
+        <v>-0.02444721981608952</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>-0.01676950234040031</v>
       </c>
       <c r="AT7" t="n">
         <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.1855775757600771</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.05193021707313243</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.06729246760618057</v>
+        <v>-0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.02493726976724284</v>
+        <v>0.06782018533407337</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ7" t="n">
         <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>-0</v>
+        <v>0.005130822780535725</v>
       </c>
       <c r="BC7" t="n">
         <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>-0.007982531375752814</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.009364975992659686</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.03081483595014116</v>
+        <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.0009640501661764517</v>
+        <v>-0.02747188227152782</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0</v>
+        <v>0.01994699419720076</v>
       </c>
       <c r="BL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>0</v>
+        <v>0.01774486949884594</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.05740984604762992</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.02431296682649726</v>
+        <v>-0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.07401027005054792</v>
+        <v>0.07863114093203601</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
@@ -4062,76 +4062,76 @@
         <v>-0</v>
       </c>
       <c r="BT7" t="n">
-        <v>-0</v>
+        <v>0.02587460201374581</v>
       </c>
       <c r="BU7" t="n">
         <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.0930181696645629</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.02173698638931516</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.06073690934416953</v>
+        <v>-0</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.0599532218090424</v>
+        <v>0.00913604147311986</v>
       </c>
       <c r="BZ7" t="n">
         <v>-0</v>
       </c>
       <c r="CA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC7" t="n">
-        <v>-0</v>
+        <v>0.01344437443301469</v>
       </c>
       <c r="CD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.02194169236439666</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.0119113295107453</v>
+        <v>-0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0.0337430277284799</v>
+        <v>-0</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.01086550177918144</v>
+        <v>-0.002525513441973712</v>
       </c>
       <c r="CI7" t="n">
         <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>0</v>
+        <v>0.02857987568343638</v>
       </c>
       <c r="CM7" t="n">
         <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0.02237040998962355</v>
       </c>
       <c r="CO7" t="n">
-        <v>-0.00311611250270546</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0.07797003488609117</v>
+        <v>-0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.01951063572127302</v>
+        <v>-0.02160989721178494</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
@@ -4143,49 +4143,49 @@
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0</v>
+        <v>-0.004896971275379041</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.01809293082518872</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.01409744402682592</v>
+        <v>0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0.02251843230197862</v>
+        <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.006619849355987009</v>
+        <v>0.001696089508389789</v>
       </c>
       <c r="DA7" t="n">
         <v>-0</v>
       </c>
       <c r="DB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC7" t="n">
         <v>0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0</v>
+        <v>0.02835947243463679</v>
       </c>
       <c r="DE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.07591903459584413</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.03212016589797904</v>
+        <v>-0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0.02188436266789736</v>
+        <v>-0</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.009293765942529866</v>
+        <v>0.03432965550359691</v>
       </c>
       <c r="DJ7" t="n">
         <v>-0</v>
@@ -4197,184 +4197,184 @@
         <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>-0</v>
+        <v>-0.003293180302426062</v>
       </c>
       <c r="DN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>0.003935862885775828</v>
       </c>
       <c r="DP7" t="n">
-        <v>-0.01568429939667123</v>
+        <v>-0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0.01108766286862919</v>
+        <v>-0</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.03320744224402997</v>
+        <v>-0.006215503434935499</v>
       </c>
       <c r="DS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT7" t="n">
         <v>0</v>
       </c>
       <c r="DU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0</v>
+        <v>-0.001594389817384727</v>
       </c>
       <c r="DW7" t="n">
         <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>-0.0004592089785149597</v>
       </c>
       <c r="DY7" t="n">
-        <v>-0.02263615184014363</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.03808175290549844</v>
+        <v>-0</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.02011560498029561</v>
+        <v>-0.01810560698377254</v>
       </c>
       <c r="EB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC7" t="n">
         <v>-0</v>
       </c>
       <c r="ED7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0</v>
+        <v>-0.01606826355195244</v>
       </c>
       <c r="EF7" t="n">
         <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.002234654409924309</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.01491559564248777</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0.01479730875977082</v>
+        <v>0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-0.01094368548259737</v>
+        <v>0.02181410461987696</v>
       </c>
       <c r="EK7" t="n">
         <v>0</v>
       </c>
       <c r="EL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
         <v>0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0</v>
+        <v>0.02845928612046047</v>
       </c>
       <c r="EO7" t="n">
         <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.03961828092685292</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.003001390804234327</v>
+        <v>-0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0.01489352213194046</v>
+        <v>-0</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.007538439109277555</v>
+        <v>0.000910224599170139</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV7" t="n">
         <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>-0</v>
+        <v>0.01414485275481801</v>
       </c>
       <c r="EX7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.02961258701703793</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.01009755184373723</v>
+        <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0.01810869861532968</v>
+        <v>-0</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.01151281826602788</v>
+        <v>0.002599939545259947</v>
       </c>
       <c r="FC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>0</v>
+        <v>0.01806742231322473</v>
       </c>
       <c r="FG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0.02837576683751707</v>
       </c>
       <c r="FI7" t="n">
-        <v>-0.002059594627790417</v>
+        <v>0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.004807986362022771</v>
+        <v>0</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.008577730796898707</v>
+        <v>-0.0274073758923272</v>
       </c>
       <c r="FL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM7" t="n">
         <v>0</v>
       </c>
       <c r="FN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO7" t="n">
-        <v>0</v>
+        <v>0.01131448708826654</v>
       </c>
       <c r="FP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0.04917304012342708</v>
       </c>
       <c r="FR7" t="n">
-        <v>-0.002331235911165352</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.003639199609467288</v>
+        <v>-0</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.02531229180007931</v>
+        <v>0.008170591494498692</v>
       </c>
       <c r="FU7" t="n">
         <v>0</v>
@@ -4383,37 +4383,37 @@
         <v>-0</v>
       </c>
       <c r="FW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX7" t="n">
-        <v>0</v>
+        <v>0.0002040553276842725</v>
       </c>
       <c r="FY7" t="n">
         <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0</v>
+        <v>-0.03805602328597589</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.0006242310240909821</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.03123949893875911</v>
+        <v>-0</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>-0</v>
+        <v>0.02920196601618617</v>
       </c>
     </row>
     <row r="8">
@@ -4421,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>-0</v>
@@ -4448,13 +4448,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>-0</v>
@@ -4475,13 +4475,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>-0</v>
@@ -4502,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
         <v>-0</v>
@@ -4529,13 +4529,13 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
         <v>-0</v>
@@ -4556,13 +4556,13 @@
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
         <v>-0</v>
@@ -4583,13 +4583,13 @@
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
         <v>-0</v>
@@ -4610,13 +4610,13 @@
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP8" t="n">
         <v>-0</v>
@@ -4637,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY8" t="n">
         <v>-0</v>
@@ -4664,13 +4664,13 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH8" t="n">
         <v>-0</v>
@@ -4691,13 +4691,13 @@
         <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="n">
         <v>-0</v>
@@ -4745,13 +4745,13 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI8" t="n">
         <v>-0</v>
@@ -4772,13 +4772,13 @@
         <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR8" t="n">
         <v>-0</v>
@@ -4826,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ8" t="n">
         <v>-0</v>
@@ -4853,13 +4853,13 @@
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES8" t="n">
         <v>-0</v>
@@ -4880,13 +4880,13 @@
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
       </c>
       <c r="FA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB8" t="n">
         <v>-0</v>
@@ -4907,13 +4907,13 @@
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI8" t="n">
         <v>0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK8" t="n">
         <v>-0</v>
@@ -4987,28 +4987,28 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.308837513699337</v>
       </c>
       <c r="C9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0718349936323637</v>
+        <v>-0.1589860402525157</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03427260604407267</v>
+        <v>-0.05896441198662523</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.05451280536552339</v>
+        <v>-0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -5017,16 +5017,16 @@
         <v>-0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.1738801710880599</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.05553888478275615</v>
+        <v>-0.1748480064177955</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.002283408944047414</v>
+        <v>-0.09078821872728558</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -5035,7 +5035,7 @@
         <v>-0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0788266937567902</v>
+        <v>-0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -5044,97 +5044,97 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.03192809770401349</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V9" t="n">
-        <v>0.004122332378264833</v>
+        <v>-0.001387649776204901</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.0319046325035148</v>
+        <v>-0.01878444132903621</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.005795480973741085</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0</v>
+        <v>0.09609342156927538</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.02955954944138706</v>
+        <v>-0.01583361763630926</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.00944258702161889</v>
+        <v>0.02614210105954132</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>-0</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.01562979563146627</v>
+        <v>-0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0</v>
+        <v>0.01201434169659742</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.04385084789147345</v>
+        <v>-0.02333848054016761</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.06340374512615801</v>
+        <v>-0.1169364095724832</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
         <v>-0</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.003664187651110896</v>
+        <v>-0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT9" t="n">
         <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0</v>
+        <v>0.4865642780238283</v>
       </c>
       <c r="AV9" t="n">
         <v>-0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.01667982900581639</v>
+        <v>-0.01411881013775301</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.01741954245075993</v>
+        <v>0.1655598123403939</v>
       </c>
       <c r="AY9" t="n">
         <v>-0</v>
@@ -5143,133 +5143,133 @@
         <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0.08556963463796946</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.004597855773339872</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.0399187705630366</v>
+        <v>-0.08634637356778407</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.007856534655871253</v>
+        <v>-0.09473611216678739</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI9" t="n">
         <v>-0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.01376173354416144</v>
+        <v>0</v>
       </c>
       <c r="BK9" t="n">
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>0.1774821396635779</v>
       </c>
       <c r="BN9" t="n">
         <v>-0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.0166573977438612</v>
+        <v>0.06548650014818584</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.01881459236458683</v>
+        <v>0.1233943477860986</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR9" t="n">
         <v>-0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.0646050450557735</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
         <v>-0</v>
       </c>
       <c r="BU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV9" t="n">
-        <v>-0</v>
+        <v>0.2549388721522159</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.06598878293075232</v>
+        <v>0.009772335770081523</v>
       </c>
       <c r="BY9" t="n">
-        <v>-0.008971714120623657</v>
+        <v>-0.0009088234190569114</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA9" t="n">
         <v>0</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.03535738648589857</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
         <v>0</v>
       </c>
       <c r="CD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE9" t="n">
-        <v>-0</v>
+        <v>-0.07264711792594522</v>
       </c>
       <c r="CF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>-0.01990760482057003</v>
+        <v>0.01284544761467159</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.01870267212104706</v>
+        <v>-0.01698158723797281</v>
       </c>
       <c r="CI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.01836167001157649</v>
+        <v>-0</v>
       </c>
       <c r="CL9" t="n">
         <v>-0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>-0.08005486311620783</v>
       </c>
       <c r="CO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0.04366105193584941</v>
+        <v>-0.1510881336018197</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.09920110708740031</v>
+        <v>-0.1078269145765783</v>
       </c>
       <c r="CR9" t="n">
         <v>0</v>
@@ -5278,79 +5278,79 @@
         <v>-0</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.009911073787306194</v>
+        <v>-0</v>
       </c>
       <c r="CU9" t="n">
         <v>-0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>0</v>
+        <v>-0.04879397122791831</v>
       </c>
       <c r="CX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0.01868007366669555</v>
+        <v>0.04427389187067311</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.0213131798376319</v>
+        <v>0.003947588426968985</v>
       </c>
       <c r="DA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.01929014015456526</v>
+        <v>0</v>
       </c>
       <c r="DD9" t="n">
         <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.008355738328355745</v>
       </c>
       <c r="DG9" t="n">
         <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>-0.009279990830308636</v>
+        <v>0.03942212670202858</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.04110484544825377</v>
+        <v>0.02088159297517147</v>
       </c>
       <c r="DJ9" t="n">
         <v>0</v>
       </c>
       <c r="DK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL9" t="n">
-        <v>-0.03985277919023714</v>
+        <v>0</v>
       </c>
       <c r="DM9" t="n">
         <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.07304922844680363</v>
       </c>
       <c r="DP9" t="n">
         <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.01480379345728476</v>
+        <v>-0.02781599415017285</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.0119196149544554</v>
+        <v>0.0002163568278280296</v>
       </c>
       <c r="DS9" t="n">
         <v>0</v>
@@ -5359,61 +5359,61 @@
         <v>0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.0385794426044925</v>
+        <v>-0</v>
       </c>
       <c r="DV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW9" t="n">
         <v>0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>0.001170596689471825</v>
       </c>
       <c r="DY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>-0.00882817194410021</v>
+        <v>-0.06159511086322306</v>
       </c>
       <c r="EA9" t="n">
-        <v>-0.02329603398915776</v>
+        <v>0.01277477942149955</v>
       </c>
       <c r="EB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.004681659887215893</v>
+        <v>-0</v>
       </c>
       <c r="EE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF9" t="n">
         <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>-0</v>
+        <v>-0.003995118857192442</v>
       </c>
       <c r="EH9" t="n">
         <v>-0</v>
       </c>
       <c r="EI9" t="n">
-        <v>-0.06684465355918173</v>
+        <v>0.07354526679419983</v>
       </c>
       <c r="EJ9" t="n">
-        <v>-0.01364858816486695</v>
+        <v>0.04663789603508074</v>
       </c>
       <c r="EK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.03072222172713069</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
         <v>-0</v>
@@ -5422,52 +5422,52 @@
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0.08289450129499981</v>
       </c>
       <c r="EQ9" t="n">
         <v>-0</v>
       </c>
       <c r="ER9" t="n">
-        <v>-0.03967006363104385</v>
+        <v>-0.06452548441508707</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.01663378047365126</v>
+        <v>-0.01177948182984246</v>
       </c>
       <c r="ET9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.02187445814950359</v>
+        <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY9" t="n">
-        <v>-0</v>
+        <v>-0.05575798335214243</v>
       </c>
       <c r="EZ9" t="n">
         <v>-0</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0.02254324431882466</v>
+        <v>0.03062273268441391</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.02513869069773549</v>
+        <v>0.007642498349471457</v>
       </c>
       <c r="FC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.03123641114833071</v>
+        <v>-0</v>
       </c>
       <c r="FF9" t="n">
         <v>-0</v>
@@ -5476,135 +5476,135 @@
         <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0</v>
+        <v>0.03111639733926996</v>
       </c>
       <c r="FI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0.01701155445439978</v>
+        <v>0.06760339432032428</v>
       </c>
       <c r="FK9" t="n">
-        <v>-0.002679910610304494</v>
+        <v>0.03588874853998237</v>
       </c>
       <c r="FL9" t="n">
         <v>0</v>
       </c>
       <c r="FM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN9" t="n">
-        <v>-0.01037038220765908</v>
+        <v>-0</v>
       </c>
       <c r="FO9" t="n">
         <v>-0</v>
       </c>
       <c r="FP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0.04400671252846972</v>
       </c>
       <c r="FR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>-0.02209975540553824</v>
+        <v>-0.004982085057918361</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.1000251122907934</v>
+        <v>0.09649272571852938</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV9" t="n">
         <v>-0</v>
       </c>
       <c r="FW9" t="n">
-        <v>-0.0280067982220075</v>
+        <v>-0</v>
       </c>
       <c r="FX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
         <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>-0</v>
+        <v>-0.02596322865274908</v>
       </c>
       <c r="GA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>-0.001231571611841838</v>
+        <v>-0.0285355953398962</v>
       </c>
       <c r="GC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE9" t="n">
         <v>-0</v>
       </c>
       <c r="GF9" t="n">
-        <v>-0.004224840584143768</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.5407111251145273</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2619784851917879</v>
+        <v>-0.2016399133246066</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02021237169636416</v>
+        <v>-0.1350959168775636</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.00320872953459567</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.0910347020960459</v>
+        <v>0.003852032474455218</v>
       </c>
       <c r="I10" t="n">
         <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.2773289776739223</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2168777781277034</v>
+        <v>-0.2499043703245696</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.06259865556868299</v>
+        <v>-0.2464411654557337</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01213283601487093</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1669851946198472</v>
+        <v>-0.001554485570413537</v>
       </c>
       <c r="R10" t="n">
         <v>-0</v>
@@ -5613,79 +5613,79 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.1124211081738318</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.0183207738407505</v>
+        <v>-0.04740922299625878</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.07255379669750642</v>
+        <v>-0.06059242954990575</v>
       </c>
       <c r="X10" t="n">
-        <v>0.02400583410998804</v>
+        <v>-0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.0188574878837362</v>
+        <v>0.009589959168939167</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.07778910881359896</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.08494519858239194</v>
+        <v>0.08998509583996964</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.05590215736098782</v>
+        <v>-0.07981084100016018</v>
       </c>
       <c r="AG10" t="n">
-        <v>8.1380909716364e-11</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
         <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.02723409662858938</v>
+        <v>1.630263676318253e-11</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0</v>
+        <v>-0.004025892854037009</v>
       </c>
       <c r="AM10" t="n">
         <v>-0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.09902408031024568</v>
+        <v>-0.08992958786047296</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.05539033200563613</v>
+        <v>-0.2034797207508635</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.04107794971341754</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR10" t="n">
-        <v>-0.001938395686771891</v>
+        <v>0.05155070527039243</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
@@ -5694,79 +5694,79 @@
         <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>0.9163430920870876</v>
       </c>
       <c r="AV10" t="n">
         <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.1199835460834647</v>
+        <v>0.05972301842178926</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.12390326747982</v>
+        <v>0.292336155957983</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.01418282916861395</v>
+        <v>-0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA10" t="n">
-        <v>-0.1325345003457394</v>
+        <v>0.1009363817088652</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>0.006289136114339917</v>
       </c>
       <c r="BE10" t="n">
         <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.1213240173566315</v>
+        <v>-0.09290761586745611</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.0772119906106107</v>
+        <v>-0.2539450282035305</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.03010019150469398</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
         <v>-0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.02082699728451932</v>
+        <v>0.01222240947604272</v>
       </c>
       <c r="BK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.390266612368925</v>
       </c>
       <c r="BN10" t="n">
         <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.01725077982737479</v>
+        <v>0.1793660712206083</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.05691822970810247</v>
+        <v>0.2957341931719327</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0.03791503167072881</v>
+        <v>-0</v>
       </c>
       <c r="BR10" t="n">
         <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.07826508635212709</v>
+        <v>0.08343488714931932</v>
       </c>
       <c r="BT10" t="n">
         <v>-0</v>
@@ -5775,214 +5775,214 @@
         <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>0.4441993544171567</v>
       </c>
       <c r="BW10" t="n">
         <v>-0</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.1459325739664567</v>
+        <v>0.01742247662862836</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.03068683674791125</v>
+        <v>0.03281467687235599</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.02076308042422902</v>
+        <v>-0</v>
       </c>
       <c r="CA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0.02321445672940662</v>
+        <v>-0.0233986793582012</v>
       </c>
       <c r="CC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD10" t="n">
         <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.130297370895971</v>
       </c>
       <c r="CF10" t="n">
         <v>-0</v>
       </c>
       <c r="CG10" t="n">
-        <v>-0.0736526970628824</v>
+        <v>0.001479845025411586</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.009603625454189994</v>
+        <v>-0.02046022589911825</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0.00462198889652802</v>
+        <v>-0</v>
       </c>
       <c r="CJ10" t="n">
         <v>-0</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.02991527047339803</v>
+        <v>0.01572128557282828</v>
       </c>
       <c r="CL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0.2061889370517557</v>
       </c>
       <c r="CO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>-0.04701928444476116</v>
+        <v>-0.245654472780435</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.107943075780337</v>
+        <v>-0.09170255564705031</v>
       </c>
       <c r="CR10" t="n">
-        <v>-0.04956612210263103</v>
+        <v>0</v>
       </c>
       <c r="CS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT10" t="n">
-        <v>-0.02546912190407713</v>
+        <v>0.1377335021579791</v>
       </c>
       <c r="CU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV10" t="n">
         <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0</v>
+        <v>-0.07915332093516005</v>
       </c>
       <c r="CX10" t="n">
         <v>0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0.05366956423257596</v>
+        <v>0.05764602845909789</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.008779977621005214</v>
+        <v>-0.01285575189627416</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.01435201776319342</v>
+        <v>0</v>
       </c>
       <c r="DB10" t="n">
         <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.02006496141930893</v>
+        <v>0.01213644830901321</v>
       </c>
       <c r="DD10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.05676158040014594</v>
       </c>
       <c r="DG10" t="n">
         <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>-0.05396529554625382</v>
+        <v>0.03201839626103923</v>
       </c>
       <c r="DI10" t="n">
-        <v>-0.03521804994534797</v>
+        <v>0.01907826590593834</v>
       </c>
       <c r="DJ10" t="n">
-        <v>-0.01045833274049905</v>
+        <v>0</v>
       </c>
       <c r="DK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL10" t="n">
-        <v>-0.03432141740362679</v>
+        <v>-0.001326446167532763</v>
       </c>
       <c r="DM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.1220463514517836</v>
       </c>
       <c r="DP10" t="n">
         <v>0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.05258316947938673</v>
+        <v>-0.03572346473703963</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.08831617060119996</v>
+        <v>0.06786035729228607</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0.05560132668106718</v>
+        <v>0</v>
       </c>
       <c r="DT10" t="n">
         <v>0</v>
       </c>
       <c r="DU10" t="n">
-        <v>-0.007795667634700154</v>
+        <v>0.05214582253672739</v>
       </c>
       <c r="DV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW10" t="n">
         <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>-0.09366163018058023</v>
       </c>
       <c r="DY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.01372084257827557</v>
+        <v>-0.05467398866148412</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.03359845476240666</v>
+        <v>-0.1183066487304788</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.05643840590533874</v>
+        <v>0</v>
       </c>
       <c r="EC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.04755055181594731</v>
+        <v>-0.0218425263726557</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
         <v>-0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0.05074081903308744</v>
       </c>
       <c r="EH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI10" t="n">
-        <v>-0.1715976260412861</v>
+        <v>0.07082482162234234</v>
       </c>
       <c r="EJ10" t="n">
-        <v>-0.002578623266397942</v>
+        <v>0.041900222996049</v>
       </c>
       <c r="EK10" t="n">
-        <v>-0.01180557610049636</v>
+        <v>0</v>
       </c>
       <c r="EL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.01404252923155279</v>
+        <v>0.05821442132301583</v>
       </c>
       <c r="EN10" t="n">
         <v>-0</v>
@@ -5991,25 +5991,25 @@
         <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>-0</v>
+        <v>-0.1514852490998026</v>
       </c>
       <c r="EQ10" t="n">
         <v>-0</v>
       </c>
       <c r="ER10" t="n">
-        <v>-0.03650217333842197</v>
+        <v>0.08964805177864447</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.01544915383138371</v>
+        <v>-0.1011519746163665</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.1058909700091996</v>
+        <v>-0</v>
       </c>
       <c r="EU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>-0.02490259253559755</v>
+        <v>-0.03100679235386417</v>
       </c>
       <c r="EW10" t="n">
         <v>-0</v>
@@ -6018,52 +6018,52 @@
         <v>-0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.09091246485789266</v>
       </c>
       <c r="EZ10" t="n">
         <v>-0</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0.05654754093407104</v>
+        <v>0.02648257686023893</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.01521953959750851</v>
+        <v>0.04341268816959238</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.01888092707711279</v>
+        <v>-0</v>
       </c>
       <c r="FD10" t="n">
         <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.03903503119906054</v>
+        <v>0.005310696963633347</v>
       </c>
       <c r="FF10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>0.08135764934729958</v>
       </c>
       <c r="FI10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0.07288693768799756</v>
+        <v>-0.06443371753654847</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.07457442185271111</v>
+        <v>-0.03892800051942179</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.01258983849067355</v>
+        <v>0</v>
       </c>
       <c r="FM10" t="n">
         <v>-0</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.00483389711809121</v>
+        <v>-0.009201381573407604</v>
       </c>
       <c r="FO10" t="n">
         <v>0</v>
@@ -6072,25 +6072,25 @@
         <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-0.2594821626120333</v>
       </c>
       <c r="FR10" t="n">
         <v>0</v>
       </c>
       <c r="FS10" t="n">
-        <v>-0.01614484167516326</v>
+        <v>-0.2193682741471389</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.03739970292345787</v>
+        <v>-0.1624908043852578</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0.07501931988525019</v>
+        <v>-0</v>
       </c>
       <c r="FV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.03800108921137151</v>
+        <v>0.03992196136991334</v>
       </c>
       <c r="FX10" t="n">
         <v>0</v>
@@ -6099,25 +6099,25 @@
         <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>-0.1518724883824849</v>
       </c>
       <c r="GA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.05637547755857358</v>
+        <v>-0.08995590047039734</v>
       </c>
       <c r="GC10" t="n">
         <v>-0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.02031633234415901</v>
+        <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>-0.02673458789511365</v>
+        <v>0.0914328864948992</v>
       </c>
       <c r="GG10" t="n">
         <v>-0</v>
@@ -6128,25 +6128,25 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1174926237718222</v>
+        <v>0.1264982660824506</v>
       </c>
       <c r="C11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1592814661514025</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06888396020419271</v>
+        <v>-0.1010416475286456</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-0.06736178046966328</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -6155,19 +6155,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.08450371854718236</v>
+        <v>0.06755406581919619</v>
       </c>
       <c r="L11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1129412706875034</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.03198051196205055</v>
+        <v>-0.09686343083522156</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0.06783245527839372</v>
       </c>
       <c r="P11" t="n">
         <v>-0</v>
@@ -6176,25 +6176,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>-0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.008812531007535361</v>
+        <v>0.0246044396895783</v>
       </c>
       <c r="U11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.03478542808997249</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.06149886582224235</v>
+        <v>0.01280331966404087</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.02531186438114293</v>
       </c>
       <c r="Y11" t="n">
         <v>-0</v>
@@ -6203,25 +6203,25 @@
         <v>-0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.04214155854409339</v>
+        <v>0.02624000718326293</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.05052226764994805</v>
+        <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.04154230773324647</v>
+        <v>0.02053932422090534</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>0.01831923465805918</v>
       </c>
       <c r="AH11" t="n">
         <v>-0</v>
@@ -6230,79 +6230,79 @@
         <v>-0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.02869104639497892</v>
+        <v>0.03019000208390693</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.0110996495247779</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.02933521629700899</v>
+        <v>-0.02167828261374442</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0</v>
+        <v>-0.005103666240848554</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0.06733701355703484</v>
+        <v>0.1644029439479651</v>
       </c>
       <c r="AV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.04112356410835726</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.03319421699214278</v>
+        <v>-0.02817208851656468</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>-0.01552788845842532</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
       </c>
       <c r="BA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB11" t="n">
         <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0.02877681349806403</v>
+        <v>0.02749511806433985</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.07817175367566515</v>
+        <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.006120609060629009</v>
+        <v>-0.06488224516061489</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0</v>
+        <v>-0.0398422682148595</v>
       </c>
       <c r="BI11" t="n">
         <v>-0</v>
@@ -6311,106 +6311,106 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
         <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.06145551057481324</v>
+        <v>0.08018258151658449</v>
       </c>
       <c r="BN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.02478450237075084</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.001087916024019614</v>
+        <v>0.05336656014177592</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>0.02217172442641558</v>
       </c>
       <c r="BR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV11" t="n">
-        <v>-0.03144260107243191</v>
+        <v>0.06642295344740001</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.07633605707797836</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.02748821466242105</v>
+        <v>-0.02294950271410317</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0</v>
+        <v>0.005956819455632601</v>
       </c>
       <c r="CA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD11" t="n">
         <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.04134282290311456</v>
+        <v>-0.02668282347523912</v>
       </c>
       <c r="CF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>-0.03866376655873158</v>
+        <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.00643557818757266</v>
+        <v>0.01484024229332514</v>
       </c>
       <c r="CI11" t="n">
-        <v>0</v>
+        <v>0.02097025433599488</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.02226744282784708</v>
+        <v>-0.0310221355225829</v>
       </c>
       <c r="CO11" t="n">
         <v>0</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0.04068123621668038</v>
+        <v>-0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.1210743838373886</v>
+        <v>-0.02736188727869271</v>
       </c>
       <c r="CR11" t="n">
-        <v>0</v>
+        <v>-0.002423552755429784</v>
       </c>
       <c r="CS11" t="n">
         <v>0</v>
@@ -6419,109 +6419,109 @@
         <v>-0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
         <v>-0</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.04233685345412336</v>
+        <v>-0.01302092842841177</v>
       </c>
       <c r="CX11" t="n">
         <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0.030577520749357</v>
+        <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.004114327978471661</v>
+        <v>0.01350314037955262</v>
       </c>
       <c r="DA11" t="n">
-        <v>0</v>
+        <v>0.02421051553341514</v>
       </c>
       <c r="DB11" t="n">
         <v>0</v>
       </c>
       <c r="DC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.04837321050239815</v>
+        <v>-0.02274368922650078</v>
       </c>
       <c r="DG11" t="n">
         <v>-0</v>
       </c>
       <c r="DH11" t="n">
-        <v>-0.02013831906219988</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.04272925311773377</v>
+        <v>0.01432290195943902</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0</v>
+        <v>0.006114630458516354</v>
       </c>
       <c r="DK11" t="n">
         <v>0</v>
       </c>
       <c r="DL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM11" t="n">
         <v>0</v>
       </c>
       <c r="DN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.01485512393299228</v>
+        <v>-0.02508077785186991</v>
       </c>
       <c r="DP11" t="n">
         <v>0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>-0.001845754142060676</v>
+        <v>0</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.04002492178612756</v>
+        <v>0.0195510493817696</v>
       </c>
       <c r="DS11" t="n">
-        <v>0</v>
+        <v>-0.03512511100117643</v>
       </c>
       <c r="DT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.01669420022257546</v>
+        <v>0.0006908908836452184</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.03750220055711256</v>
+        <v>-0</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.02424614045502492</v>
+        <v>-0.03699875369452738</v>
       </c>
       <c r="EB11" t="n">
-        <v>0</v>
+        <v>-0.01670401354666498</v>
       </c>
       <c r="EC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED11" t="n">
         <v>-0</v>
@@ -6533,79 +6533,79 @@
         <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.03536550165162961</v>
+        <v>0.005659020484685309</v>
       </c>
       <c r="EH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI11" t="n">
-        <v>-0.06348288807542159</v>
+        <v>-0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.02622620915873347</v>
+        <v>0.005979249545618404</v>
       </c>
       <c r="EK11" t="n">
-        <v>-0</v>
+        <v>0.007850707283415538</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO11" t="n">
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.0245071427325058</v>
+        <v>0.01505174058034706</v>
       </c>
       <c r="EQ11" t="n">
         <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.004313631043769818</v>
+        <v>0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.02731776077583045</v>
+        <v>0.002408284378346959</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0</v>
+        <v>0.02596231707677813</v>
       </c>
       <c r="EU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV11" t="n">
         <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX11" t="n">
         <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.03789448032553674</v>
+        <v>-0.008566828047975053</v>
       </c>
       <c r="EZ11" t="n">
         <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>-0.0334830175838271</v>
+        <v>-0</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.01219941478123975</v>
+        <v>0.01299818816672416</v>
       </c>
       <c r="FC11" t="n">
-        <v>0</v>
+        <v>0.02856701427894971</v>
       </c>
       <c r="FD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF11" t="n">
         <v>-0</v>
@@ -6614,22 +6614,22 @@
         <v>-0</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.05228720564623685</v>
+        <v>-0.02584560463323945</v>
       </c>
       <c r="FI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>-0.03002989949657137</v>
+        <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>-0.03173011992664214</v>
+        <v>-0.03822142963612288</v>
       </c>
       <c r="FL11" t="n">
-        <v>0</v>
+        <v>0.02033609638763326</v>
       </c>
       <c r="FM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN11" t="n">
         <v>-0</v>
@@ -6638,22 +6638,22 @@
         <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.009898217292990362</v>
+        <v>0.009173335735800587</v>
       </c>
       <c r="FR11" t="n">
         <v>0</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.04909486852087636</v>
+        <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.06276044612982469</v>
+        <v>-0.01972457043563238</v>
       </c>
       <c r="FU11" t="n">
-        <v>0</v>
+        <v>0.02007050360524771</v>
       </c>
       <c r="FV11" t="n">
         <v>-0</v>
@@ -6662,28 +6662,28 @@
         <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
         <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.02793246616029518</v>
+        <v>-0.04368531969031271</v>
       </c>
       <c r="GA11" t="n">
         <v>0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.03513435782077707</v>
+        <v>-0</v>
       </c>
       <c r="GC11" t="n">
         <v>-0</v>
       </c>
       <c r="GD11" t="n">
-        <v>-0</v>
+        <v>-0.008854992949508407</v>
       </c>
       <c r="GE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF11" t="n">
         <v>-0</v>
@@ -6694,55 +6694,55 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0.356105925027107</v>
       </c>
       <c r="C12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4198130176122564</v>
+        <v>-0.3273475644609015</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.02998003840468232</v>
+        <v>-0.03510941775715357</v>
       </c>
       <c r="F12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.2132506391400069</v>
+        <v>-0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.2273813800921222</v>
       </c>
       <c r="L12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3617416673644089</v>
+        <v>-0.3164224570630384</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.1530591426280851</v>
+        <v>-0.08198153896943326</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.3012390409841356</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -6751,52 +6751,52 @@
         <v>-0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.07988411165973269</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0.007290482456153097</v>
+        <v>-0.01804479997848274</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.1725928452955471</v>
+        <v>0.05817906893277577</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.08474908976449727</v>
+        <v>-0</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0</v>
+        <v>0.1080847864560173</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.1040147443113668</v>
+        <v>0.03707943970091036</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.002005437003500464</v>
+        <v>0.00370144053486786</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
         <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.06099006831307594</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
         <v>-0</v>
@@ -6805,25 +6805,25 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0</v>
+        <v>0.04604551178437569</v>
       </c>
       <c r="AM12" t="n">
         <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.1429545589464025</v>
+        <v>-0.05200083005845777</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.0599169966521923</v>
+        <v>-0.1095944426246499</v>
       </c>
       <c r="AP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR12" t="n">
-        <v>-0.04036182943135027</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
         <v>0</v>
@@ -6832,16 +6832,16 @@
         <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0</v>
+        <v>0.4763181651311523</v>
       </c>
       <c r="AV12" t="n">
         <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.2028832256440332</v>
+        <v>-0.06335506828253538</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.03422129725773449</v>
+        <v>0.1412198247482449</v>
       </c>
       <c r="AY12" t="n">
         <v>-0</v>
@@ -6850,133 +6850,133 @@
         <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0.240241952638371</v>
+        <v>-0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC12" t="n">
         <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>0.0004229954872618721</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.180372873689067</v>
+        <v>-0.1186142366160628</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.01391867123842178</v>
+        <v>-0.132393745598824</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
         <v>-0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-0.02267806202133494</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0</v>
+        <v>0.1246896416856042</v>
       </c>
       <c r="BN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.02229714971654366</v>
+        <v>0.05607087927436529</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.016100662880198</v>
+        <v>0.1450592201036958</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR12" t="n">
         <v>-0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.1239794591018332</v>
+        <v>-0</v>
       </c>
       <c r="BT12" t="n">
         <v>-0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>-0</v>
+        <v>0.2056107721507822</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.1984166422379937</v>
+        <v>-0.0276442048634645</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.06528616380175917</v>
+        <v>0.0926420225689817</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB12" t="n">
-        <v>-0.1005602010811675</v>
+        <v>-0</v>
       </c>
       <c r="CC12" t="n">
         <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>-0</v>
+        <v>-0.07575994655083948</v>
       </c>
       <c r="CF12" t="n">
         <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>-0.1195526973107324</v>
+        <v>0.02927118341516405</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.05479245485341892</v>
+        <v>-0.02539130996499756</v>
       </c>
       <c r="CI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.07335108909406997</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0</v>
+        <v>-0.0448773233779386</v>
       </c>
       <c r="CO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP12" t="n">
-        <v>-0.1323532683502741</v>
+        <v>-0.197826330564627</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.1784468834656947</v>
+        <v>-0.08757642132000598</v>
       </c>
       <c r="CR12" t="n">
         <v>0</v>
@@ -6985,79 +6985,79 @@
         <v>-0</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.1086331213267501</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
         <v>0</v>
       </c>
       <c r="CV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>0</v>
+        <v>-0.04451413814147292</v>
       </c>
       <c r="CX12" t="n">
         <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0.1081738792276966</v>
+        <v>0.05163792271698823</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.05985768637440519</v>
+        <v>-0.01329956497643998</v>
       </c>
       <c r="DA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.06974341085965767</v>
+        <v>0</v>
       </c>
       <c r="DD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE12" t="n">
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0.01112579202634385</v>
       </c>
       <c r="DG12" t="n">
         <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>-0.05317985587316421</v>
+        <v>0.02287306999489502</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.1288925447773453</v>
+        <v>0.03701593632784823</v>
       </c>
       <c r="DJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL12" t="n">
-        <v>-0.02459421592936677</v>
+        <v>0</v>
       </c>
       <c r="DM12" t="n">
         <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.03619825339398167</v>
       </c>
       <c r="DP12" t="n">
         <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.009430266283901374</v>
+        <v>0.04055421436266991</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.01168740039204411</v>
+        <v>-0.03603307586464365</v>
       </c>
       <c r="DS12" t="n">
         <v>0</v>
@@ -7066,169 +7066,169 @@
         <v>0</v>
       </c>
       <c r="DU12" t="n">
-        <v>-0.01065239204364464</v>
+        <v>-0</v>
       </c>
       <c r="DV12" t="n">
         <v>0</v>
       </c>
       <c r="DW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>0.02985293618991007</v>
       </c>
       <c r="DY12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.05212334262316765</v>
+        <v>0.05610893983687579</v>
       </c>
       <c r="EA12" t="n">
-        <v>-0.08151404689330198</v>
+        <v>0.01112703613313716</v>
       </c>
       <c r="EB12" t="n">
         <v>-0</v>
       </c>
       <c r="EC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED12" t="n">
-        <v>-0.06409386445200733</v>
+        <v>-0</v>
       </c>
       <c r="EE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>-0</v>
+        <v>-0.01783664752591511</v>
       </c>
       <c r="EH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
-        <v>-0.2146052964553189</v>
+        <v>0.08495298685785083</v>
       </c>
       <c r="EJ12" t="n">
-        <v>-0.04644165679039698</v>
+        <v>0.05435229773281496</v>
       </c>
       <c r="EK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL12" t="n">
         <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.09325038670878256</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO12" t="n">
         <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>-0</v>
+        <v>-0.07967318855358811</v>
       </c>
       <c r="EQ12" t="n">
         <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>-0.05756049084810188</v>
+        <v>0.01817578624549318</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.0650492516783267</v>
+        <v>0.06222577699490948</v>
       </c>
       <c r="ET12" t="n">
         <v>-0</v>
       </c>
       <c r="EU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV12" t="n">
-        <v>-0.06360962988241471</v>
+        <v>0</v>
       </c>
       <c r="EW12" t="n">
         <v>-0</v>
       </c>
       <c r="EX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY12" t="n">
-        <v>-0</v>
+        <v>-0.0551760051377822</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA12" t="n">
-        <v>-0.1060117899839416</v>
+        <v>0.04206832536128274</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.05776793685856116</v>
+        <v>-0.0005613731767063897</v>
       </c>
       <c r="FC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.08572734120978956</v>
+        <v>0</v>
       </c>
       <c r="FF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH12" t="n">
-        <v>0</v>
+        <v>0.03168485946606039</v>
       </c>
       <c r="FI12" t="n">
         <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0.07575974194752376</v>
+        <v>0.05355426045263198</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.06490872653983046</v>
+        <v>-0.03027493138111739</v>
       </c>
       <c r="FL12" t="n">
         <v>0</v>
       </c>
       <c r="FM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.05550930631672046</v>
+        <v>0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.03326493599153122</v>
       </c>
       <c r="FR12" t="n">
         <v>0</v>
       </c>
       <c r="FS12" t="n">
-        <v>-0.05821744175153391</v>
+        <v>-0.06418374001985755</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.1143656420503192</v>
+        <v>0.04156068006899397</v>
       </c>
       <c r="FU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV12" t="n">
         <v>-0</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.08909613026463188</v>
+        <v>0</v>
       </c>
       <c r="FX12" t="n">
         <v>0</v>
@@ -7237,25 +7237,25 @@
         <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>-0</v>
+        <v>0.03072773072611829</v>
       </c>
       <c r="GA12" t="n">
         <v>-0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.04772125733585844</v>
+        <v>-0.08360481121215224</v>
       </c>
       <c r="GC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE12" t="n">
         <v>-0</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.001994323675404073</v>
+        <v>0</v>
       </c>
       <c r="GG12" t="n">
         <v>-0</v>
@@ -7266,208 +7266,208 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1724860074690688</v>
+        <v>0.4562722459161241</v>
       </c>
       <c r="C13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3190103290484625</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08188131197954904</v>
+        <v>-0.1161644569419592</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-0.3380762144340904</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.1461890785082776</v>
+        <v>0.3181731283336343</v>
       </c>
       <c r="L13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2353226599812457</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.02351986654838735</v>
+        <v>-0.0929885288576002</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-0.3166656802397269</v>
       </c>
       <c r="P13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.01331018445602012</v>
+        <v>0.06904277453375565</v>
       </c>
       <c r="U13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.05878022094471063</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.1301767881932842</v>
+        <v>-0.01692962264278432</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>0.01340659289609996</v>
       </c>
       <c r="Y13" t="n">
         <v>-0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.02677196335267298</v>
+        <v>0.05865255926861281</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.09342077202072208</v>
+        <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.08117188203106791</v>
+        <v>0.0444993440285001</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0</v>
+        <v>-0.0128475004527829</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI13" t="n">
         <v>-0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0.02778108969336353</v>
+        <v>0.08258948347264849</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.04883328858692898</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.02687269565827984</v>
+        <v>-0.00149602596424211</v>
       </c>
       <c r="AP13" t="n">
-        <v>-0</v>
+        <v>-0.06719702132353282</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR13" t="n">
         <v>-0</v>
       </c>
       <c r="AS13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0.1376859177480755</v>
+        <v>0.4186827764955669</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.1018187786413079</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.02946198100087543</v>
+        <v>-0.04596529706862233</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>-0.1760270418060803</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB13" t="n">
         <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0.03856775027183013</v>
+        <v>0.1009726169460692</v>
       </c>
       <c r="BE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.1432115827432636</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.0007166121432965601</v>
+        <v>-0.1007323412607164</v>
       </c>
       <c r="BH13" t="n">
-        <v>-0</v>
+        <v>-0.092844102698831</v>
       </c>
       <c r="BI13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ13" t="n">
         <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.05691803445890198</v>
+        <v>0.1484047786471922</v>
       </c>
       <c r="BN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.02777762964609747</v>
+        <v>-0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.007957550285915951</v>
+        <v>0.08049809434016349</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>0.03238267468314128</v>
       </c>
       <c r="BR13" t="n">
         <v>-0</v>
@@ -7476,52 +7476,52 @@
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV13" t="n">
-        <v>-0.04399517578498415</v>
+        <v>0.2106581889126529</v>
       </c>
       <c r="BW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.127226371190462</v>
+        <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>-0.06441809348926304</v>
+        <v>-0.05685201156288592</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0</v>
+        <v>-0.1116816034443778</v>
       </c>
       <c r="CA13" t="n">
         <v>-0</v>
       </c>
       <c r="CB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC13" t="n">
         <v>0</v>
       </c>
       <c r="CD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.05997570323749544</v>
+        <v>-0.09674752841934435</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>-0.07916425473231492</v>
+        <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.004300234732652908</v>
+        <v>-0.01134797682010751</v>
       </c>
       <c r="CI13" t="n">
-        <v>0</v>
+        <v>0.08012059290730283</v>
       </c>
       <c r="CJ13" t="n">
         <v>-0</v>
@@ -7533,25 +7533,25 @@
         <v>0</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.05372923550494741</v>
+        <v>-0.07420046722858696</v>
       </c>
       <c r="CO13" t="n">
         <v>0</v>
       </c>
       <c r="CP13" t="n">
-        <v>-0.03967633400462198</v>
+        <v>0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.1412212494550022</v>
+        <v>-0.04077179232027319</v>
       </c>
       <c r="CR13" t="n">
-        <v>0</v>
+        <v>-0.02971217695521739</v>
       </c>
       <c r="CS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT13" t="n">
         <v>-0</v>
@@ -7563,19 +7563,19 @@
         <v>-0</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.05577908776258674</v>
+        <v>-0.07356795108112858</v>
       </c>
       <c r="CX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>-0.06937548245335849</v>
+        <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.0008032684293625399</v>
+        <v>-0.005525380232076612</v>
       </c>
       <c r="DA13" t="n">
-        <v>0</v>
+        <v>0.08645943743018089</v>
       </c>
       <c r="DB13" t="n">
         <v>0</v>
@@ -7584,28 +7584,28 @@
         <v>-0</v>
       </c>
       <c r="DD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.03302055466882916</v>
+        <v>-0.06652959088449979</v>
       </c>
       <c r="DG13" t="n">
         <v>-0</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.00972749439949456</v>
+        <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>-0.05945085536961408</v>
+        <v>0.05529090818379761</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0</v>
+        <v>-0.008999608973962254</v>
       </c>
       <c r="DK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL13" t="n">
         <v>0</v>
@@ -7614,28 +7614,28 @@
         <v>0</v>
       </c>
       <c r="DN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.003471323665919609</v>
+        <v>-0.05351740294952523</v>
       </c>
       <c r="DP13" t="n">
         <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.01303827554373953</v>
+        <v>-0</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.05167422096733087</v>
+        <v>0.02267360403353078</v>
       </c>
       <c r="DS13" t="n">
-        <v>0</v>
+        <v>0.006830711728326886</v>
       </c>
       <c r="DT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV13" t="n">
         <v>0</v>
@@ -7644,22 +7644,22 @@
         <v>-0</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.02256319391740686</v>
+        <v>0.002210282527747582</v>
       </c>
       <c r="DY13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.06123181847793192</v>
+        <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.01620077673533578</v>
+        <v>-0.002720787191998843</v>
       </c>
       <c r="EB13" t="n">
-        <v>-0</v>
+        <v>0.009466639627989673</v>
       </c>
       <c r="EC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED13" t="n">
         <v>-0</v>
@@ -7671,46 +7671,46 @@
         <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.04790503499617441</v>
+        <v>-0.03307553149186553</v>
       </c>
       <c r="EH13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI13" t="n">
-        <v>-0.1288447452245311</v>
+        <v>-0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>-0.04956780945164082</v>
+        <v>0.0199587095951503</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0</v>
+        <v>0.08136357239273918</v>
       </c>
       <c r="EL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO13" t="n">
         <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.02489960079822679</v>
+        <v>-0.01737974599884997</v>
       </c>
       <c r="EQ13" t="n">
         <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.03909039373306043</v>
+        <v>-0</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.007896038403562738</v>
+        <v>-0.0314498837592302</v>
       </c>
       <c r="ET13" t="n">
-        <v>-0</v>
+        <v>0.07718296283963495</v>
       </c>
       <c r="EU13" t="n">
         <v>-0</v>
@@ -7722,22 +7722,22 @@
         <v>-0</v>
       </c>
       <c r="EX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.0527526883592354</v>
+        <v>-0.06422638237392678</v>
       </c>
       <c r="EZ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>-0.06915745029951434</v>
+        <v>-0</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.01820478264510553</v>
+        <v>-0.01045294116400082</v>
       </c>
       <c r="FC13" t="n">
-        <v>-0</v>
+        <v>0.0872925751927735</v>
       </c>
       <c r="FD13" t="n">
         <v>-0</v>
@@ -7746,28 +7746,28 @@
         <v>0</v>
       </c>
       <c r="FF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG13" t="n">
         <v>-0</v>
       </c>
       <c r="FH13" t="n">
-        <v>-0.07453448042960241</v>
+        <v>-0.06998371113217733</v>
       </c>
       <c r="FI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>-0.1098624415415848</v>
+        <v>-0</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.05033708341678985</v>
+        <v>-0.01960058257004734</v>
       </c>
       <c r="FL13" t="n">
-        <v>0</v>
+        <v>-0.0659647983907895</v>
       </c>
       <c r="FM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN13" t="n">
         <v>-0</v>
@@ -7776,28 +7776,28 @@
         <v>0</v>
       </c>
       <c r="FP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.004348898716013736</v>
+        <v>0.01084695572953623</v>
       </c>
       <c r="FR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.001151792107995115</v>
+        <v>-0</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.09460237829543248</v>
+        <v>-0.04836904612322503</v>
       </c>
       <c r="FU13" t="n">
-        <v>0</v>
+        <v>-0.01100046938879572</v>
       </c>
       <c r="FV13" t="n">
         <v>-0</v>
       </c>
       <c r="FW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX13" t="n">
         <v>0</v>
@@ -7806,19 +7806,19 @@
         <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.01820129472153498</v>
+        <v>-0.04179229178010763</v>
       </c>
       <c r="GA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.03913134687856934</v>
+        <v>-0</v>
       </c>
       <c r="GC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>-0</v>
+        <v>-0.04359218957911182</v>
       </c>
       <c r="GE13" t="n">
         <v>-0</v>
@@ -7832,100 +7832,100 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>-0</v>
+        <v>0.8688484855603391</v>
       </c>
       <c r="C14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3575828480618931</v>
+        <v>-0.3501684230490169</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.02985547907013983</v>
+        <v>-0.2589324656966952</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.1644103245482883</v>
+        <v>-0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.5201682979624286</v>
       </c>
       <c r="L14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2940712895671624</v>
+        <v>-0.3341675719261765</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.1019474311846136</v>
+        <v>-0.2358866312271939</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.2240500945487122</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.1975616790300831</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.0147172978628956</v>
+        <v>-0.07130552257903461</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.1302091054941904</v>
+        <v>0.03925992351895414</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.04651722328723404</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0</v>
+        <v>0.07216156297882664</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.08844248538205662</v>
+        <v>0.007171677741329001</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.009235991298268735</v>
+        <v>0.005816602575164124</v>
       </c>
       <c r="AG14" t="n">
         <v>-0</v>
@@ -7934,34 +7934,34 @@
         <v>-0</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.01556109639686168</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK14" t="n">
         <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0</v>
+        <v>0.06104590672916133</v>
       </c>
       <c r="AM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.1161442509560748</v>
+        <v>-0.09481155950382329</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.0233581361642248</v>
+        <v>-0.1290821174328996</v>
       </c>
       <c r="AP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR14" t="n">
-        <v>-0.02077121342001812</v>
+        <v>-0</v>
       </c>
       <c r="AS14" t="n">
         <v>0</v>
@@ -7970,178 +7970,178 @@
         <v>-0</v>
       </c>
       <c r="AU14" t="n">
-        <v>-0</v>
+        <v>0.7350957387530772</v>
       </c>
       <c r="AV14" t="n">
         <v>-0</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.1816228119853141</v>
+        <v>0.02098291001476535</v>
       </c>
       <c r="AX14" t="n">
-        <v>-0.005753347370241184</v>
+        <v>0.0619421154805032</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA14" t="n">
-        <v>-0.1696640964653207</v>
+        <v>-0</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC14" t="n">
         <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>0.04989250965980249</v>
       </c>
       <c r="BE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.1557878354949031</v>
+        <v>-0.2239209297335207</v>
       </c>
       <c r="BG14" t="n">
-        <v>-0.07379746408506012</v>
+        <v>-0.2903811981284431</v>
       </c>
       <c r="BH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-0.01584545742519752</v>
+        <v>0</v>
       </c>
       <c r="BK14" t="n">
         <v>-0</v>
       </c>
       <c r="BL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM14" t="n">
-        <v>-0</v>
+        <v>0.2123025924947842</v>
       </c>
       <c r="BN14" t="n">
         <v>0</v>
       </c>
       <c r="BO14" t="n">
-        <v>-0.0004487918346577848</v>
+        <v>0.05421484391733093</v>
       </c>
       <c r="BP14" t="n">
-        <v>-0.002035892436407582</v>
+        <v>0.2234989311781893</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR14" t="n">
         <v>-0</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.09080827744775598</v>
+        <v>-0</v>
       </c>
       <c r="BT14" t="n">
         <v>-0</v>
       </c>
       <c r="BU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>-0</v>
+        <v>0.3763934946056313</v>
       </c>
       <c r="BW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.1279306023075723</v>
+        <v>0.01756266794063113</v>
       </c>
       <c r="BY14" t="n">
-        <v>-0.03621872426571631</v>
+        <v>0.008699489647824458</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB14" t="n">
-        <v>-0.1143210058370025</v>
+        <v>-0</v>
       </c>
       <c r="CC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD14" t="n">
         <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>-0</v>
+        <v>-0.1826759531118414</v>
       </c>
       <c r="CF14" t="n">
         <v>0</v>
       </c>
       <c r="CG14" t="n">
-        <v>-0.09711341388493105</v>
+        <v>0.03886847771222796</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.03031818374733213</v>
+        <v>-0.02161242005270074</v>
       </c>
       <c r="CI14" t="n">
         <v>-0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.05866200368383661</v>
+        <v>0</v>
       </c>
       <c r="CL14" t="n">
         <v>0</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>-0</v>
+        <v>0.002667718988725054</v>
       </c>
       <c r="CO14" t="n">
         <v>-0</v>
       </c>
       <c r="CP14" t="n">
-        <v>-0.07893448022400892</v>
+        <v>-0.1493305808625107</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.1541371495054626</v>
+        <v>-0.1417058966818038</v>
       </c>
       <c r="CR14" t="n">
         <v>0</v>
       </c>
       <c r="CS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.09893542968442325</v>
+        <v>-0</v>
       </c>
       <c r="CU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW14" t="n">
-        <v>0</v>
+        <v>-0.1496696466870169</v>
       </c>
       <c r="CX14" t="n">
         <v>-0</v>
       </c>
       <c r="CY14" t="n">
-        <v>-0.08154899370262005</v>
+        <v>0.07738209858978728</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.03411327660353942</v>
+        <v>-0.02388805394506988</v>
       </c>
       <c r="DA14" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>0</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.04514983324223306</v>
+        <v>-0</v>
       </c>
       <c r="DD14" t="n">
         <v>-0</v>
@@ -8159,52 +8159,52 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>0.008766758702662098</v>
       </c>
       <c r="DG14" t="n">
         <v>0</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.00209318491970185</v>
+        <v>0.04826046580231017</v>
       </c>
       <c r="DI14" t="n">
-        <v>-0.1005730123745485</v>
+        <v>0.03762387843891844</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL14" t="n">
-        <v>-0.02755830915509417</v>
+        <v>0</v>
       </c>
       <c r="DM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO14" t="n">
-        <v>-0</v>
+        <v>-0.09265018390873017</v>
       </c>
       <c r="DP14" t="n">
         <v>0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.006907447551718906</v>
+        <v>0.02727828627462141</v>
       </c>
       <c r="DR14" t="n">
-        <v>-0.02374230641782208</v>
+        <v>-0.07107973101380249</v>
       </c>
       <c r="DS14" t="n">
         <v>0</v>
       </c>
       <c r="DT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.009978906547382533</v>
+        <v>0</v>
       </c>
       <c r="DV14" t="n">
         <v>0</v>
@@ -8213,79 +8213,79 @@
         <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>-0</v>
+        <v>0.08962040226558138</v>
       </c>
       <c r="DY14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.02419296784117149</v>
+        <v>-0.009615914314477428</v>
       </c>
       <c r="EA14" t="n">
-        <v>-0.02655288452549156</v>
+        <v>-0.1364902192531859</v>
       </c>
       <c r="EB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.03860957682034342</v>
+        <v>0</v>
       </c>
       <c r="EE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>-0</v>
+        <v>-0.1464972730228761</v>
       </c>
       <c r="EH14" t="n">
         <v>0</v>
       </c>
       <c r="EI14" t="n">
-        <v>-0.1700964741541016</v>
+        <v>0.05109612134898893</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.03689643597721833</v>
+        <v>0.09883759579961381</v>
       </c>
       <c r="EK14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL14" t="n">
         <v>-0</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.05529470604886741</v>
+        <v>-0</v>
       </c>
       <c r="EN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO14" t="n">
         <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>-0</v>
+        <v>-0.08136982820389013</v>
       </c>
       <c r="EQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER14" t="n">
-        <v>-0.02091764091969317</v>
+        <v>0.02910917252408486</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.01873435157141777</v>
+        <v>0.01492779927241372</v>
       </c>
       <c r="ET14" t="n">
         <v>-0</v>
       </c>
       <c r="EU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV14" t="n">
-        <v>-0.02964137218368091</v>
+        <v>0</v>
       </c>
       <c r="EW14" t="n">
         <v>-0</v>
@@ -8294,25 +8294,25 @@
         <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>-0</v>
+        <v>-0.1535436197153204</v>
       </c>
       <c r="EZ14" t="n">
         <v>0</v>
       </c>
       <c r="FA14" t="n">
-        <v>-0.08836017931043411</v>
+        <v>0.05287744815702453</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.03762984132931829</v>
+        <v>0.01604421291359439</v>
       </c>
       <c r="FC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD14" t="n">
         <v>-0</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.0645870579811664</v>
+        <v>0</v>
       </c>
       <c r="FF14" t="n">
         <v>0</v>
@@ -8321,25 +8321,25 @@
         <v>0</v>
       </c>
       <c r="FH14" t="n">
-        <v>-0</v>
+        <v>-0.0008893896483974513</v>
       </c>
       <c r="FI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ14" t="n">
-        <v>-0.0906384121357697</v>
+        <v>0.09958200200361476</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.09626554548338513</v>
+        <v>-0.1239542724331504</v>
       </c>
       <c r="FL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.04977988096234873</v>
+        <v>-0</v>
       </c>
       <c r="FO14" t="n">
         <v>0</v>
@@ -8348,25 +8348,25 @@
         <v>0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>-0</v>
+        <v>-0.01275719886208435</v>
       </c>
       <c r="FR14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS14" t="n">
-        <v>-0.007033649578410938</v>
+        <v>-0.01915141688514226</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.02168972051849288</v>
+        <v>-0.04030502380513516</v>
       </c>
       <c r="FU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.0755549783527053</v>
+        <v>-0</v>
       </c>
       <c r="FX14" t="n">
         <v>0</v>
@@ -8375,183 +8375,183 @@
         <v>-0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>-0</v>
+        <v>0.03130400704323796</v>
       </c>
       <c r="GA14" t="n">
         <v>-0</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.02471129624198513</v>
+        <v>-0.09152932145243792</v>
       </c>
       <c r="GC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.03261069890573484</v>
+        <v>0</v>
       </c>
       <c r="GG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>-0.4897946058250079</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1467703433202114</v>
+        <v>0.2553873640097842</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.06087608713332241</v>
+        <v>0.0912822162339839</v>
       </c>
       <c r="F15" t="n">
         <v>-0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H15" t="n">
         <v>-0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1990062225093887</v>
+        <v>-0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K15" t="n">
-        <v>-0</v>
+        <v>-0.3811187252002604</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.08610754329933125</v>
+        <v>0.2950204349220976</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.05070200083418179</v>
+        <v>0.0586984475665568</v>
       </c>
       <c r="O15" t="n">
         <v>-0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q15" t="n">
         <v>-0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1670109547233267</v>
+        <v>-0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T15" t="n">
-        <v>-0</v>
+        <v>-0.1203263504930447</v>
       </c>
       <c r="U15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.04940701786513398</v>
+        <v>0.03908782149247531</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1286476573703776</v>
+        <v>-0.0105523830241653</v>
       </c>
       <c r="X15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.0570487641837004</v>
+        <v>-0</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0</v>
+        <v>-0.1183005863192267</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.0005136175726211871</v>
+        <v>0.03765755646461141</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.02162594351970658</v>
+        <v>0.01957589983663047</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-0.06365349919141583</v>
+        <v>-0</v>
       </c>
       <c r="AK15" t="n">
         <v>-0</v>
       </c>
       <c r="AL15" t="n">
-        <v>-0</v>
+        <v>-0.06115783779822015</v>
       </c>
       <c r="AM15" t="n">
         <v>-0</v>
       </c>
       <c r="AN15" t="n">
-        <v>-0.03608468882677766</v>
+        <v>0.04097527281714509</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.02515023122593896</v>
+        <v>0.02486619580679795</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR15" t="n">
         <v>-0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.02706057716503839</v>
+        <v>-0</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>-0</v>
+        <v>-0.3110404540181336</v>
       </c>
       <c r="AV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW15" t="n">
-        <v>-0.1067218353614723</v>
+        <v>-0.04007913045472587</v>
       </c>
       <c r="AX15" t="n">
-        <v>-0.02571484831581942</v>
+        <v>-0.0469194117464563</v>
       </c>
       <c r="AY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ15" t="n">
         <v>0</v>
@@ -8560,76 +8560,76 @@
         <v>-0</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.1261759318321492</v>
+        <v>-0</v>
       </c>
       <c r="BC15" t="n">
         <v>-0</v>
       </c>
       <c r="BD15" t="n">
-        <v>-0</v>
+        <v>-0.07204170637869879</v>
       </c>
       <c r="BE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.00831145447513813</v>
+        <v>0.1356385995529577</v>
       </c>
       <c r="BG15" t="n">
-        <v>-0.02888158634225317</v>
+        <v>0.2779134401742442</v>
       </c>
       <c r="BH15" t="n">
         <v>-0</v>
       </c>
       <c r="BI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ15" t="n">
         <v>-0</v>
       </c>
       <c r="BK15" t="n">
-        <v>-0.0001926421970546553</v>
+        <v>-0</v>
       </c>
       <c r="BL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM15" t="n">
-        <v>-0</v>
+        <v>0.02240919932704862</v>
       </c>
       <c r="BN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>-0.01176902882616273</v>
+        <v>-0.05225952134347327</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.01382805406635166</v>
+        <v>0.05204159306952381</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS15" t="n">
         <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>-0.06667495667824741</v>
+        <v>-0</v>
       </c>
       <c r="BU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>-0</v>
+        <v>-0.2307407669799166</v>
       </c>
       <c r="BW15" t="n">
         <v>-0</v>
       </c>
       <c r="BX15" t="n">
-        <v>-0.1020531180756891</v>
+        <v>0.07755213151364411</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.0102916440673142</v>
+        <v>-0.04382258263362638</v>
       </c>
       <c r="BZ15" t="n">
         <v>-0</v>
@@ -8638,106 +8638,106 @@
         <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.1536394989494664</v>
+        <v>-0</v>
       </c>
       <c r="CD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>0.1073439045681067</v>
       </c>
       <c r="CF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.04252328361297079</v>
+        <v>-0.04645352120996245</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.006205219564758932</v>
+        <v>0.05016834753856157</v>
       </c>
       <c r="CI15" t="n">
         <v>-0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL15" t="n">
-        <v>-0.02067375414653963</v>
+        <v>-0</v>
       </c>
       <c r="CM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>-0.03070922391830118</v>
       </c>
       <c r="CO15" t="n">
         <v>0</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.03753044650686088</v>
+        <v>0.003626121778869435</v>
       </c>
       <c r="CQ15" t="n">
-        <v>-0.07848235091108206</v>
+        <v>0.03703803667718018</v>
       </c>
       <c r="CR15" t="n">
         <v>-0</v>
       </c>
       <c r="CS15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT15" t="n">
         <v>0</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.04994187412080712</v>
+        <v>0</v>
       </c>
       <c r="CV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW15" t="n">
-        <v>-0</v>
+        <v>0.1146223331216115</v>
       </c>
       <c r="CX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.0458631567500684</v>
+        <v>-0.054460696297739</v>
       </c>
       <c r="CZ15" t="n">
-        <v>-0.008890979868994781</v>
+        <v>0.03120195477045006</v>
       </c>
       <c r="DA15" t="n">
         <v>-0</v>
       </c>
       <c r="DB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD15" t="n">
-        <v>-0.02999155123113964</v>
+        <v>0</v>
       </c>
       <c r="DE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>0.09950553703509149</v>
       </c>
       <c r="DG15" t="n">
         <v>-0</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.0262848795887981</v>
+        <v>-0.03562441273080511</v>
       </c>
       <c r="DI15" t="n">
-        <v>-0.0007768927692794446</v>
+        <v>-0.0006922103588113417</v>
       </c>
       <c r="DJ15" t="n">
         <v>-0</v>
@@ -8749,52 +8749,52 @@
         <v>-0</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.004098413164464431</v>
+        <v>0</v>
       </c>
       <c r="DN15" t="n">
         <v>0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>0.1049385743192215</v>
       </c>
       <c r="DP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ15" t="n">
-        <v>-0.01451357776967326</v>
+        <v>-0.07813722559973516</v>
       </c>
       <c r="DR15" t="n">
-        <v>-0.01231529094994092</v>
+        <v>0.1160603917489286</v>
       </c>
       <c r="DS15" t="n">
         <v>-0</v>
       </c>
       <c r="DT15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU15" t="n">
         <v>0</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.08184147614212672</v>
+        <v>-0</v>
       </c>
       <c r="DW15" t="n">
         <v>-0</v>
       </c>
       <c r="DX15" t="n">
-        <v>-0</v>
+        <v>-0.0576246646633161</v>
       </c>
       <c r="DY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ15" t="n">
-        <v>-0.02563080041907123</v>
+        <v>0.1224830522733489</v>
       </c>
       <c r="EA15" t="n">
-        <v>-0.02081118404023873</v>
+        <v>-0.09141655107188952</v>
       </c>
       <c r="EB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC15" t="n">
         <v>0</v>
@@ -8803,25 +8803,25 @@
         <v>-0</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.04289899556484998</v>
+        <v>0</v>
       </c>
       <c r="EF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>0.05424043739083904</v>
       </c>
       <c r="EH15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.06459619282596721</v>
+        <v>-0.03024513164356141</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.04274105452732919</v>
+        <v>-0.04013084274520613</v>
       </c>
       <c r="EK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL15" t="n">
         <v>-0</v>
@@ -8830,106 +8830,106 @@
         <v>0</v>
       </c>
       <c r="EN15" t="n">
-        <v>-0.03829817268845963</v>
+        <v>-0</v>
       </c>
       <c r="EO15" t="n">
         <v>-0</v>
       </c>
       <c r="EP15" t="n">
-        <v>0</v>
+        <v>0.07006353321651008</v>
       </c>
       <c r="EQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.05066942407097506</v>
+        <v>0.04984043352493279</v>
       </c>
       <c r="ES15" t="n">
-        <v>-0.0127916671246826</v>
+        <v>-0.07631043686573867</v>
       </c>
       <c r="ET15" t="n">
         <v>0</v>
       </c>
       <c r="EU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW15" t="n">
-        <v>-0.06394007421073035</v>
+        <v>0</v>
       </c>
       <c r="EX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>0.1272854826962137</v>
       </c>
       <c r="EZ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.03627874266648216</v>
+        <v>-0.07084985792562258</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.001991881159855756</v>
+        <v>0.03204188528670987</v>
       </c>
       <c r="FC15" t="n">
         <v>-0</v>
       </c>
       <c r="FD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF15" t="n">
-        <v>-0.04297235568075276</v>
+        <v>-0</v>
       </c>
       <c r="FG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH15" t="n">
-        <v>0</v>
+        <v>0.03406443671713183</v>
       </c>
       <c r="FI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.01582929669010768</v>
+        <v>-0.04911430167798197</v>
       </c>
       <c r="FK15" t="n">
-        <v>-0.04276099622679182</v>
+        <v>0.01469202268249644</v>
       </c>
       <c r="FL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN15" t="n">
         <v>-0</v>
       </c>
       <c r="FO15" t="n">
-        <v>-0.02670824742714141</v>
+        <v>-0</v>
       </c>
       <c r="FP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>-0</v>
+        <v>0.01783233709118581</v>
       </c>
       <c r="FR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS15" t="n">
-        <v>-0.003564802516311489</v>
+        <v>0.1498109956087034</v>
       </c>
       <c r="FT15" t="n">
-        <v>8.00928272308612e-05</v>
+        <v>-0.03078288813167587</v>
       </c>
       <c r="FU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV15" t="n">
         <v>0</v>
@@ -8938,25 +8938,25 @@
         <v>-0</v>
       </c>
       <c r="FX15" t="n">
-        <v>-0.0168852353264706</v>
+        <v>-0</v>
       </c>
       <c r="FY15" t="n">
         <v>0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0</v>
+        <v>0.0711471921330625</v>
       </c>
       <c r="GA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.03939668527443284</v>
+        <v>0.1053542327809655</v>
       </c>
       <c r="GC15" t="n">
         <v>-0</v>
       </c>
       <c r="GD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE15" t="n">
         <v>0</v>
@@ -8965,7 +8965,7 @@
         <v>-0</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.0165100719598703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -8973,133 +8973,133 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-0.2577959707006281</v>
       </c>
       <c r="D16" t="n">
-        <v>-0</v>
+        <v>0.3618146944987696</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02493046797941428</v>
+        <v>-0.1620365327638392</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2558555907226083</v>
+        <v>-0</v>
       </c>
       <c r="G16" t="n">
         <v>-0</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1132028585479956</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-0.15543399211283</v>
       </c>
       <c r="M16" t="n">
-        <v>-0</v>
+        <v>0.3616650765209314</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.03163869201204676</v>
+        <v>0.007069004965059046</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2425046829642808</v>
+        <v>-0</v>
       </c>
       <c r="P16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.1000797072702482</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U16" t="n">
-        <v>-0</v>
+        <v>-0.002330486452801787</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>0.07385831159400956</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.04883552143988443</v>
+        <v>-0.01159181253437818</v>
       </c>
       <c r="X16" t="n">
-        <v>0.05901556753232089</v>
+        <v>-0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.0197663088289174</v>
+        <v>-0</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
         <v>-0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>-0.04008308330849078</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0</v>
+        <v>-0.04223230944786743</v>
       </c>
       <c r="AF16" t="n">
-        <v>-0.06929692688296903</v>
+        <v>-0.02361417685765593</v>
       </c>
       <c r="AG16" t="n">
-        <v>-0.04082385559703636</v>
+        <v>-0</v>
       </c>
       <c r="AH16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>-0.02521655206579821</v>
+        <v>-0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
         <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>0.03801006320669476</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>0.02970872146164135</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.03039280401415981</v>
+        <v>0.04919782110359869</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.02308464471213044</v>
+        <v>-0</v>
       </c>
       <c r="AQ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.01158385298296615</v>
+        <v>-0</v>
       </c>
       <c r="AS16" t="n">
         <v>0</v>
@@ -9111,49 +9111,49 @@
         <v>0</v>
       </c>
       <c r="AV16" t="n">
-        <v>0</v>
+        <v>-0.140551446294999</v>
       </c>
       <c r="AW16" t="n">
-        <v>0</v>
+        <v>0.2532404461835556</v>
       </c>
       <c r="AX16" t="n">
-        <v>-0.04726922383066182</v>
+        <v>-0.2340411727060333</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.09510484462669333</v>
+        <v>0</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA16" t="n">
-        <v>-0.06689352618731795</v>
+        <v>-0</v>
       </c>
       <c r="BB16" t="n">
         <v>0</v>
       </c>
       <c r="BC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD16" t="n">
         <v>-0</v>
       </c>
       <c r="BE16" t="n">
-        <v>-0</v>
+        <v>-0.05237062105523004</v>
       </c>
       <c r="BF16" t="n">
-        <v>-0</v>
+        <v>0.06964555788385104</v>
       </c>
       <c r="BG16" t="n">
-        <v>-0.02280082303574833</v>
+        <v>-0.1061496539400617</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.03900386217495518</v>
+        <v>-0</v>
       </c>
       <c r="BI16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ16" t="n">
-        <v>-0.04953808156723985</v>
+        <v>0</v>
       </c>
       <c r="BK16" t="n">
         <v>-0</v>
@@ -9162,25 +9162,25 @@
         <v>0</v>
       </c>
       <c r="BM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BN16" t="n">
-        <v>0</v>
+        <v>0.02940813314501391</v>
       </c>
       <c r="BO16" t="n">
-        <v>0</v>
+        <v>-0.003434504733069104</v>
       </c>
       <c r="BP16" t="n">
-        <v>-0.02033640935516571</v>
+        <v>-0.1930407201954022</v>
       </c>
       <c r="BQ16" t="n">
-        <v>-0.03779873455175986</v>
+        <v>-0</v>
       </c>
       <c r="BR16" t="n">
         <v>-0</v>
       </c>
       <c r="BS16" t="n">
-        <v>-0.002832147400838174</v>
+        <v>0</v>
       </c>
       <c r="BT16" t="n">
         <v>0</v>
@@ -9192,103 +9192,103 @@
         <v>0</v>
       </c>
       <c r="BW16" t="n">
-        <v>0</v>
+        <v>-0.08402373015047923</v>
       </c>
       <c r="BX16" t="n">
-        <v>0</v>
+        <v>0.1206688143755325</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.02260222122364501</v>
+        <v>-0.1415011688414384</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.1034021001707934</v>
+        <v>-0</v>
       </c>
       <c r="CA16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB16" t="n">
-        <v>-0.03829759079347802</v>
+        <v>-0</v>
       </c>
       <c r="CC16" t="n">
         <v>0</v>
       </c>
       <c r="CD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CF16" t="n">
-        <v>0</v>
+        <v>0.08658891207835391</v>
       </c>
       <c r="CG16" t="n">
-        <v>0</v>
+        <v>-0.06764746524567751</v>
       </c>
       <c r="CH16" t="n">
-        <v>-0.005111901388178552</v>
+        <v>-0.01470984734035716</v>
       </c>
       <c r="CI16" t="n">
-        <v>-0.04402949376974198</v>
+        <v>-0</v>
       </c>
       <c r="CJ16" t="n">
         <v>0</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.0341417722292251</v>
+        <v>-0</v>
       </c>
       <c r="CL16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM16" t="n">
         <v>-0</v>
       </c>
       <c r="CN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO16" t="n">
-        <v>0</v>
+        <v>0.02490211657520711</v>
       </c>
       <c r="CP16" t="n">
-        <v>0</v>
+        <v>0.02839401001466998</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.06771844613425695</v>
+        <v>0.1187040221238335</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.08678181480989776</v>
+        <v>0</v>
       </c>
       <c r="CS16" t="n">
         <v>-0</v>
       </c>
       <c r="CT16" t="n">
-        <v>0.02723524894203716</v>
+        <v>0</v>
       </c>
       <c r="CU16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV16" t="n">
         <v>0</v>
       </c>
       <c r="CW16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CX16" t="n">
-        <v>-0</v>
+        <v>0.05017740151562487</v>
       </c>
       <c r="CY16" t="n">
-        <v>-0</v>
+        <v>-0.04981610299472441</v>
       </c>
       <c r="CZ16" t="n">
-        <v>-0.004592316308611289</v>
+        <v>-0.02708667523864162</v>
       </c>
       <c r="DA16" t="n">
-        <v>-0.04792674713159478</v>
+        <v>0</v>
       </c>
       <c r="DB16" t="n">
         <v>-0</v>
       </c>
       <c r="DC16" t="n">
-        <v>0.04197298155438609</v>
+        <v>0</v>
       </c>
       <c r="DD16" t="n">
         <v>-0</v>
@@ -9300,103 +9300,103 @@
         <v>0</v>
       </c>
       <c r="DG16" t="n">
-        <v>-0</v>
+        <v>0.00507602064158093</v>
       </c>
       <c r="DH16" t="n">
-        <v>0</v>
+        <v>-0.01643737241567117</v>
       </c>
       <c r="DI16" t="n">
-        <v>0.01024755462912359</v>
+        <v>0.0003624386666122486</v>
       </c>
       <c r="DJ16" t="n">
-        <v>-0.009206240248020997</v>
+        <v>0</v>
       </c>
       <c r="DK16" t="n">
         <v>0</v>
       </c>
       <c r="DL16" t="n">
-        <v>-0.006850955561344922</v>
+        <v>-0</v>
       </c>
       <c r="DM16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DP16" t="n">
-        <v>0</v>
+        <v>0.07406643904780739</v>
       </c>
       <c r="DQ16" t="n">
-        <v>0</v>
+        <v>0.006575690784338065</v>
       </c>
       <c r="DR16" t="n">
-        <v>0.01516028073406943</v>
+        <v>0.02620692795113115</v>
       </c>
       <c r="DS16" t="n">
-        <v>-0.001956066241883518</v>
+        <v>-0</v>
       </c>
       <c r="DT16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU16" t="n">
-        <v>0.03457192399017815</v>
+        <v>0</v>
       </c>
       <c r="DV16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX16" t="n">
         <v>-0</v>
       </c>
       <c r="DY16" t="n">
-        <v>0</v>
+        <v>-0.007613804019035642</v>
       </c>
       <c r="DZ16" t="n">
-        <v>0</v>
+        <v>0.02741922008532682</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.004535270551859974</v>
+        <v>0.03913118805736553</v>
       </c>
       <c r="EB16" t="n">
-        <v>-0.01257659243329521</v>
+        <v>0</v>
       </c>
       <c r="EC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED16" t="n">
-        <v>0.005815384306533004</v>
+        <v>0</v>
       </c>
       <c r="EE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF16" t="n">
         <v>-0</v>
       </c>
       <c r="EG16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EH16" t="n">
-        <v>0</v>
+        <v>0.09631655932198212</v>
       </c>
       <c r="EI16" t="n">
-        <v>0</v>
+        <v>-0.1122109280043312</v>
       </c>
       <c r="EJ16" t="n">
-        <v>-0.03213625667894437</v>
+        <v>-0.008785885749687188</v>
       </c>
       <c r="EK16" t="n">
-        <v>-0.07292329114334603</v>
+        <v>0</v>
       </c>
       <c r="EL16" t="n">
         <v>0</v>
       </c>
       <c r="EM16" t="n">
-        <v>0.008034239647718615</v>
+        <v>-0</v>
       </c>
       <c r="EN16" t="n">
         <v>0</v>
@@ -9405,52 +9405,52 @@
         <v>0</v>
       </c>
       <c r="EP16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ16" t="n">
-        <v>0</v>
+        <v>0.04695420806609359</v>
       </c>
       <c r="ER16" t="n">
-        <v>0</v>
+        <v>-0.03251411459620747</v>
       </c>
       <c r="ES16" t="n">
-        <v>0.008825607039387114</v>
+        <v>-0.02454253040138296</v>
       </c>
       <c r="ET16" t="n">
-        <v>-0.04435946900761888</v>
+        <v>-0</v>
       </c>
       <c r="EU16" t="n">
         <v>0</v>
       </c>
       <c r="EV16" t="n">
-        <v>0.02662012696709181</v>
+        <v>-0</v>
       </c>
       <c r="EW16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX16" t="n">
         <v>-0</v>
       </c>
       <c r="EY16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EZ16" t="n">
-        <v>0</v>
+        <v>0.0635276986164332</v>
       </c>
       <c r="FA16" t="n">
-        <v>0</v>
+        <v>-0.05302577552943145</v>
       </c>
       <c r="FB16" t="n">
-        <v>0.0009072302130499431</v>
+        <v>-0.0173531347865908</v>
       </c>
       <c r="FC16" t="n">
-        <v>-0.05074538839842961</v>
+        <v>0</v>
       </c>
       <c r="FD16" t="n">
         <v>0</v>
       </c>
       <c r="FE16" t="n">
-        <v>0.04019010224391047</v>
+        <v>-0</v>
       </c>
       <c r="FF16" t="n">
         <v>0</v>
@@ -9462,76 +9462,76 @@
         <v>0</v>
       </c>
       <c r="FI16" t="n">
-        <v>0</v>
+        <v>-0.007160722443319895</v>
       </c>
       <c r="FJ16" t="n">
-        <v>0</v>
+        <v>0.05030517038087441</v>
       </c>
       <c r="FK16" t="n">
-        <v>0.003791285933849759</v>
+        <v>-0.04377788997541498</v>
       </c>
       <c r="FL16" t="n">
-        <v>-0.01819823561372334</v>
+        <v>-0</v>
       </c>
       <c r="FM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN16" t="n">
-        <v>0.05244114925246354</v>
+        <v>-0</v>
       </c>
       <c r="FO16" t="n">
         <v>0</v>
       </c>
       <c r="FP16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FR16" t="n">
-        <v>0</v>
+        <v>0.02103410452813839</v>
       </c>
       <c r="FS16" t="n">
-        <v>0</v>
+        <v>0.01027163786745371</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.0935271735185772</v>
+        <v>-0.03011828579788457</v>
       </c>
       <c r="FU16" t="n">
-        <v>0.007598452398454438</v>
+        <v>-0</v>
       </c>
       <c r="FV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW16" t="n">
-        <v>0.006537734843460848</v>
+        <v>-0</v>
       </c>
       <c r="FX16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY16" t="n">
         <v>0</v>
       </c>
       <c r="FZ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GA16" t="n">
-        <v>0</v>
+        <v>0.08161979285506925</v>
       </c>
       <c r="GB16" t="n">
-        <v>-0</v>
+        <v>0.04892921563788508</v>
       </c>
       <c r="GC16" t="n">
         <v>0</v>
       </c>
       <c r="GD16" t="n">
-        <v>0.0304764381748194</v>
+        <v>-0</v>
       </c>
       <c r="GE16" t="n">
         <v>-0</v>
       </c>
       <c r="GF16" t="n">
-        <v>-0.006789978867106285</v>
+        <v>-0</v>
       </c>
       <c r="GG16" t="n">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>-0</v>
       </c>
       <c r="F17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -9569,7 +9569,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9581,7 +9581,7 @@
         <v>-0</v>
       </c>
       <c r="O17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9596,7 +9596,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -9608,7 +9608,7 @@
         <v>-0</v>
       </c>
       <c r="X17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -9623,7 +9623,7 @@
         <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>-0</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM17" t="n">
         <v>0</v>
@@ -9662,7 +9662,7 @@
         <v>-0</v>
       </c>
       <c r="AP17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ17" t="n">
         <v>0</v>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="AU17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV17" t="n">
         <v>0</v>
@@ -9689,7 +9689,7 @@
         <v>-0</v>
       </c>
       <c r="AY17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ17" t="n">
         <v>0</v>
@@ -9704,7 +9704,7 @@
         <v>0</v>
       </c>
       <c r="BD17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE17" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>-0</v>
       </c>
       <c r="BH17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI17" t="n">
         <v>0</v>
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="BM17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN17" t="n">
         <v>0</v>
@@ -9743,7 +9743,7 @@
         <v>-0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR17" t="n">
         <v>0</v>
@@ -9758,7 +9758,7 @@
         <v>0</v>
       </c>
       <c r="BV17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW17" t="n">
         <v>0</v>
@@ -9770,7 +9770,7 @@
         <v>-0</v>
       </c>
       <c r="BZ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA17" t="n">
         <v>0</v>
@@ -9785,7 +9785,7 @@
         <v>0</v>
       </c>
       <c r="CE17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF17" t="n">
         <v>0</v>
@@ -9797,7 +9797,7 @@
         <v>-0</v>
       </c>
       <c r="CI17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ17" t="n">
         <v>0</v>
@@ -9812,7 +9812,7 @@
         <v>0</v>
       </c>
       <c r="CN17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO17" t="n">
         <v>0</v>
@@ -9824,7 +9824,7 @@
         <v>-0</v>
       </c>
       <c r="CR17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS17" t="n">
         <v>0</v>
@@ -9866,7 +9866,7 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG17" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>-0</v>
       </c>
       <c r="DJ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK17" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="DO17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP17" t="n">
         <v>0</v>
@@ -9905,7 +9905,7 @@
         <v>-0</v>
       </c>
       <c r="DS17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT17" t="n">
         <v>0</v>
@@ -9947,7 +9947,7 @@
         <v>0</v>
       </c>
       <c r="EG17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH17" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>-0</v>
       </c>
       <c r="EK17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL17" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="EP17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ17" t="n">
         <v>0</v>
@@ -9986,7 +9986,7 @@
         <v>-0</v>
       </c>
       <c r="ET17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU17" t="n">
         <v>0</v>
@@ -10001,7 +10001,7 @@
         <v>0</v>
       </c>
       <c r="EY17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ17" t="n">
         <v>0</v>
@@ -10013,7 +10013,7 @@
         <v>-0</v>
       </c>
       <c r="FC17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD17" t="n">
         <v>0</v>
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="FH17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI17" t="n">
         <v>0</v>
@@ -10040,7 +10040,7 @@
         <v>-0</v>
       </c>
       <c r="FL17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM17" t="n">
         <v>0</v>
